--- a/DatosEjercicio1.xlsx
+++ b/DatosEjercicio1.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Generacion" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Generacion1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Generacion2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,23 +479,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03908</v>
+        <v>0.00041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.90033</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>111100101110100001110101110010</t>
+          <t>111100010110100011011001000100</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>001100101001101011010110111001</t>
+          <t>000001010010110110001111111111</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.53286</v>
+        <v>0.14518</v>
       </c>
     </row>
     <row r="3">
@@ -501,23 +503,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.52737</v>
+        <v>0.26062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9291</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>111101101100001000101100110100</t>
+          <t>111100010110100011011001111010</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>101110011110100010011110101000</t>
+          <t>100000101011000100010001000100</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8184</v>
+        <v>0.70067</v>
       </c>
     </row>
     <row r="4">
@@ -525,23 +527,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.66594</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9291</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>111101101100001000101100110100</t>
+          <t>111100010110100011011001111010</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>110100001110100010011110100010</t>
+          <t>111100010110100011011001000100</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.81533</v>
+        <v>0.8892600000000001</v>
       </c>
     </row>
     <row r="5">
@@ -549,23 +551,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.66594</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9291</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>111101101100001000101100110100</t>
+          <t>111100010110100011011001111010</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>110100001110100010011110100010</t>
+          <t>111100010110100011011001000100</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.80283</v>
+        <v>0.8892600000000001</v>
       </c>
     </row>
     <row r="6">
@@ -573,23 +575,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.66594</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9291</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>111101101100001000100101110010</t>
+          <t>111100010110100011010001111010</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>110100001110100010011110100010</t>
+          <t>111100010110100011011001000100</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.79517</v>
+        <v>0.8892600000000001</v>
       </c>
     </row>
     <row r="7">
@@ -597,23 +599,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.66594</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9291</v>
+        <v>0.88932</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>111101101100001000100101110010</t>
+          <t>111100010110101011011001000100</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>110100001110100010011110100010</t>
+          <t>111100010110100011010001111010</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.78279</v>
+        <v>0.88927</v>
       </c>
     </row>
     <row r="8">
@@ -621,23 +623,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.66594</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9291</v>
+        <v>0.88932</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>111101101100001000100101110010</t>
+          <t>111100010110101011011001000100</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>110100001110100010101100110100</t>
+          <t>111100010110100011010001111010</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8384200000000001</v>
+        <v>0.88928</v>
       </c>
     </row>
     <row r="9">
@@ -645,23 +647,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.66594</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9291199999999999</v>
+        <v>0.88932</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>111101101100001010011110100010</t>
+          <t>111100010110101011011001000100</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>110100001110100010101100110100</t>
+          <t>111100010110100011010001000100</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.86346</v>
+        <v>0.88927</v>
       </c>
     </row>
     <row r="10">
@@ -669,23 +671,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.81252</v>
+        <v>0.48026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9291199999999999</v>
+        <v>0.88932</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>111101101100001010011110100010</t>
+          <t>111100010110101011011001000100</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>111001101100001000011110100010</t>
+          <t>101100010110100011010001000100</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.88978</v>
+        <v>0.84838</v>
       </c>
     </row>
     <row r="11">
@@ -693,23 +695,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.81958</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9291199999999999</v>
+        <v>0.88932</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>111101101100001010011110100010</t>
+          <t>111100010110101011011001000100</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>111001111100001000011100110100</t>
+          <t>111100010110100011011001000101</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9051</v>
+        <v>0.88928</v>
       </c>
     </row>
     <row r="12">
@@ -717,23 +719,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.88447</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.94537</v>
+        <v>0.88932</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>111110001110100010101110110100</t>
+          <t>111100010110101011011001000100</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>111100001100001000011110100010</t>
+          <t>111100010110100011011001000100</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.91332</v>
+        <v>0.8893</v>
       </c>
     </row>
     <row r="13">
@@ -741,23 +743,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.88447</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.94537</v>
+        <v>0.88932</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>111110001110100010101110110100</t>
+          <t>111100010110101011011001010100</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>111100001100001000011110110100</t>
+          <t>111100010110100011011001000100</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9180199999999999</v>
+        <v>0.88931</v>
       </c>
     </row>
     <row r="14">
@@ -765,23 +767,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.88562</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.93024</v>
+        <v>0.94923</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>111101101110100010101110100010</t>
+          <t>111110010110101011011001000100</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>111100001110101000011110100010</t>
+          <t>111100010110100011011001000100</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9212</v>
+        <v>0.89529</v>
       </c>
     </row>
     <row r="15">
@@ -789,23 +791,23 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9291</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.93024</v>
+        <v>0.94923</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>111101101110100010101110100010</t>
+          <t>111110010110101011011001000100</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>111101101100001000011110100010</t>
+          <t>111100010110100011011001000100</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.93013</v>
+        <v>0.89529</v>
       </c>
     </row>
     <row r="16">
@@ -813,23 +815,23 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9291</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.93035</v>
+        <v>0.88932</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>111101101110110010101100110100</t>
+          <t>111100010110101011011001000101</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>111101101100001000011110100010</t>
+          <t>111100010110100011011001000100</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.92991</v>
+        <v>0.88931</v>
       </c>
     </row>
     <row r="17">
@@ -837,23 +839,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9291</v>
+        <v>0.8892600000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.93024</v>
+        <v>0.88932</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>111101101110100010101100110100</t>
+          <t>111100010110101011011001000101</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>111101101100001000011110100010</t>
+          <t>111100010110100011011001000100</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9295600000000001</v>
+        <v>0.88931</v>
       </c>
     </row>
     <row r="18">
@@ -861,23 +863,23 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.92906</v>
+        <v>0.88932</v>
       </c>
       <c r="C18" t="n">
-        <v>0.93028</v>
+        <v>0.88932</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>111101101110101000011110100010</t>
+          <t>111100010110101011011001000100</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>111101101100000010101100110100</t>
+          <t>111100010110101011011001000100</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9295600000000001</v>
+        <v>0.88932</v>
       </c>
     </row>
     <row r="19">
@@ -885,23 +887,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9291199999999999</v>
+        <v>0.88932</v>
       </c>
       <c r="C19" t="n">
-        <v>0.93028</v>
+        <v>0.89301</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>111101101110101000101100110010</t>
+          <t>111100011110101011011001000100</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>111101101100001010101100110010</t>
+          <t>111100010110101011011001000100</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.92991</v>
+        <v>0.88969</v>
       </c>
     </row>
     <row r="20">
@@ -909,23 +911,23 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9291199999999999</v>
+        <v>0.88932</v>
       </c>
       <c r="C20" t="n">
-        <v>0.93024</v>
+        <v>0.89301</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>111101101110100010101100110100</t>
+          <t>111100011110101011011001000100</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>111101101100001010011010100010</t>
+          <t>111100010110101011011001000100</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.92968</v>
+        <v>0.88969</v>
       </c>
     </row>
     <row r="21">
@@ -933,23 +935,7325 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.92911</v>
+        <v>0.8893</v>
       </c>
       <c r="C21" t="n">
-        <v>0.93024</v>
+        <v>0.89301</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>111101101110100010111010100010</t>
+          <t>111100011110101011011001000100</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>111101101100001010001100110100</t>
+          <t>111100010110101001011001000100</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9295600000000001</v>
+        <v>0.88969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Poblacion</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Min. FO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Max. FO</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Genes cromosoma Mayor</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Genes cromosoma menor</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Media FO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00463</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.83622</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111010100001100110010010100010</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000100010110101001011101001000</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.54164</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.55808</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.83622</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111010100001100110010010100010</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>101111110011111001001010001010</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.69074</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.55805</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>111010100011101110000010001000</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>101111110011110011111111111000</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.70744</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.55805</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.83721</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111010100011110011111111111000</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>101111110011110011111111111000</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.71002</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.55805</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>111010100011101110000010001000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>101111110011110011111111111000</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.72465</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.55806</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.87516</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>111011110111110011111111111000</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>101111110011110110000010001000</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.75662</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.55806</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>111010100011101110000010000000</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>101111110011110110000010001000</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.66909</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.52337</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>111010100011101110000010001000</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>101110010011001110000010001000</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.64164</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>111010100011101110000010001000</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>101111110011101011111111101000</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.72138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.55224</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>111010100011101110000010001000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>101111100011110110000010001000</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7533300000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.72671</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>111010100011101110000010001000</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>110110100011101110000010001000</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.40164</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>111010100011101110000010011000</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>101000100011110110000010001000</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.76011</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.72671</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>111010100011101110000011001000</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>110110100011101110000010001000</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.80928</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.72671</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.83723</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>111010100011110110000010001000</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>110110100011101110000010001000</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.80928</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.78096</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>111010100011101110100010001000</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>111000100011101110000010111000</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.78096</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>111000100011101110000010001000</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.82032</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.78096</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>111000100011101110000010111000</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.83155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.78096</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>111000100011101110000010001000</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.81469</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.78096</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>111010100011101111000010111000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>111000100011101110000010111000</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.82031</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.78096</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>111000100011101110000010111000</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.81469</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.78096</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>111000100011101110000010111000</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8259300000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7809700000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>111000100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.83155</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7809700000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.83896</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>111010100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>111000100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.81487</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.76722</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.83896</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>111010100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>111000000011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.80243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.14724</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.83896</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>111010100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>011000100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.74061</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.14724</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.83896</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>111010100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>011000100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.74044</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.7809700000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.83896</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>111010100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>111000100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.80363</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.7809700000000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.83896</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>111010100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>111000100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8152199999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7809700000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.83896</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>111010100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>111000100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8097800000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7809700000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.83897</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>111010100111101110111010111000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>111000100011101110101010111000</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.83245</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7809700000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.83897</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>111010100111101110111010111000</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>111000100011101110101010111000</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.83245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.83897</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>111010100111101110111010111000</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.83807</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.83897</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>111010100111101110111010111000</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>111010100011101110111010111000</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.83789</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.83897</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>111010100111101110111010111000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8382500000000001</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.83897</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>111010100111101110111010111000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.83807</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.83897</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>111010100111101110111010111000</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.83789</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.86783</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>111011100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.84384</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.86783</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>111011100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.85556</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.86783</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>111011100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.85863</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.86783</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>111011100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8525</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.86783</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>111011100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.84637</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.86783</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>111011100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8492499999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.86783</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>111011100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.85177</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.86783</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>111011100111101110100010111000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.85466</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8660099999999999</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>111011100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.85159</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8660099999999999</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>111011100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.85159</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8660099999999999</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>111011100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.84582</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8660099999999999</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>111011100011101110100010101000</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.84294</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.83695</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.8660099999999999</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>111011100011101110100010101000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>111010100011001110100010111000</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8400300000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.8660099999999999</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>111011100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>111010100011101110100010101000</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.84005</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.83673</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8660099999999999</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>111011100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>111010100010101110100010111000</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.84001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.83673</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.8660099999999999</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>111011100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>111010100010101110100010111000</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.84289</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.83673</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8660099999999999</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>111011100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>111010100010101110100010111000</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.84001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.8660099999999999</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>111011100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>111010100011101110100010011000</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.84005</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>111010101011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>111010100011101110100010011000</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.83753</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>111010101011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>111010100011101110100010011000</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.83789</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>111010101011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>111010100011101110100010011000</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8382500000000001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.84076</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>111010101011101111100010111000</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>111010100011101110100010011000</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.83789</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>111010101011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>111010100011101110100010011000</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.8386</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>111010101011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>111010100011101110100010011000</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.83789</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>111010101011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>111010100011101110100010011000</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.83753</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>111010101011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>111010100011101110100010011000</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8382500000000001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>111010101011101110100010111000</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>111010100011101110100010011000</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.8382500000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>111010101011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>111010100011101110100010011000</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.83896</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>111010101011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.8386</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>111010101011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.83789</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.84075</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>111010101011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.83789</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.6240599999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>110010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.81586</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.6240599999999999</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>110010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.81586</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.83717</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>111010100011101110100010111000</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8371499999999999</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>111010100011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>111010100011101010101010011000</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>111010100011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>111010100011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>111010100011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>111010100011101110101010010000</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>111010100011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.84434</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>111010110011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.8379</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.84434</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>111010110011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.8379</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>111010100011101110101010111000</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.6240599999999999</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>110010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.81587</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.7809700000000001</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>111000100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.83156</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011000</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>111010100011101111101010011100</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.83718</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.83729</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>111010100011111110101010011100</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0.83719</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.83729</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>111010100011111110101010011100</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.83722</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.83729</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>111010100011111110101010011100</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.83724</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.83729</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>111010100011111110101010011100</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0.83721</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.83718</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.83729</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>111010100011111110101010011100</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>111010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.83722</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6240599999999999</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.83729</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>111010100011111110101010011100</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>110010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.81589</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.6240599999999999</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.83729</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>111010100011111110101010011100</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>110010100011101110101010011100</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.77327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Poblacion</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Min. FO</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Max. FO</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Genes cromosoma Mayor</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Genes cromosoma menor</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Media FO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03448</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.87986</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111100000010000101110111000110</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>001011111000100111110100110100</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3723</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.33161</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.88073</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111100000011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100100110110101101101100001101</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0.55528</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.61115</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.61413</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110010001001111001101100001101</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>110010000010000101110111000110</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0.61303</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.61115</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.61413</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>110010001001111001101100001101</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>110010000010000101110111000111</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0.61277</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.61149</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.61415</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>110010001001111101000011010011</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>110010000010111110110001101001</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6128</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.61149</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.61413</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>110010001001111001101100001101</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>110010000010111110110001101001</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.61255</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.61108</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.61455</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>110010001010111110110001101001</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>110010000001111001101100001101</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.61308</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.61148</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.61455</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>110010001010111110110001101001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>110010000010111101100011010010</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.61316</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.61149</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6149</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>110010001011111001100011010010</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>110010000010111110110001101001</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.61407</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.61149</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.61455</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>110010001010111110110001101001</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>110010000010111110110001101001</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.61395</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.28508</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.61455</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>110010001010111110110001101001</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100010001010111110110001101001</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.58109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.61407</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.61493</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>110010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>110010001001101110110001101001</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.61434</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.61407</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.61493</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>110010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>110010001001101110110001101001</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.61438</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.61407</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.61493</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>110010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>110010001001101110110001101001</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.61446</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6389</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>110011001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>110010001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6167899999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6389</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>110011001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>110010001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.6167899999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6389</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>110011001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>110010001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.61919</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6389</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>110011001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>110010001001111110110001100001</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6167899999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.08048</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.61493</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>110010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>010010001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.56102</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.08048</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.61493</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>110010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>010010001001111110110001100001</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.56087</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.61493</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>110010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>110010001001111110110001100001</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.61424</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.61493</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>110010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>110010001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.61431</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.61493</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>110010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>110010001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.61424</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.61493</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>110010001011111110110101101001</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>110010001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.61439</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8266</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>111010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>110010001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.72046</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8266</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>111010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>110010001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.78411</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8266</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>111010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>110010001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.76285</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.61416</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8266</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>111010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>110010001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.76274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.43451</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8266</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>111010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>101010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.68425</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.61397</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8266</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>111010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>110010001001011110110001101001</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.72015</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.61397</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>110010001001011110110001101001</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.67772</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.61397</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8266</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>111010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>110010001001011110110001101001</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.67782</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.61397</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8266</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>111010001011111110110001101001</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>110010001001011110110001101001</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.69896</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.61397</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>110010001001011110110001101001</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.67778</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.61397</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>110010001001011110110001101001</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.699</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.61397</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>110010001001011110110001101001</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.69891</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.61474</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>110010001011011110110001100001</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.78342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.82555</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>111010001001100110110001101001</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.82563</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.82555</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>111010001001100110110001101001</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.82564</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101101</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8200499999999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.43383</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>101010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.7081</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.82555</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>111010001001100110110001101001</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.82563</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.82555</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>111010001001100110110001101001</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.82565</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.82555</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>111010001001100110110001101001</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.82565</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>111010001001110110110000101001</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8253</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.8253</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.83277</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>111010011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.82637</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.82424</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.82389</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.82353</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.43383</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>101010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.7847</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.82389</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.82424</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.82495</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8253</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>111010001001110110111001101000</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101000</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101100</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.82008</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101100</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101000</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.80891</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101100</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101000</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.80333</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101100</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101000</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.80333</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.79775</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.781</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.39119</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>101000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.7859</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.39119</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>111010001001110111110001101001</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>101000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.7799700000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.39119</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>111010001001110111110001100001</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>101000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.70458</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.39119</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101000</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>101000000001110110110001101000</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.66661</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.39119</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>101000000001110110110001101000</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.66138</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.39119</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>101000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.74209</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.76642</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>111000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.7956299999999999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.82211</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>111010000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>111000001001110110100000101001</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.79598</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.76642</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>111000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.81167</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.76642</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>111000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.81133</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.14097</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>011000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.81725</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.14097</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>011000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.74983</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.8183</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.56612</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>110000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.78783</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.80785</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.76642</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>111000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.80193</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.76642</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>111000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.81273</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.76642</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>111000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.8134400000000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.76642</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>111000000001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.81273</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.80749</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.80298</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0.8085599999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0.79775</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.8256599999999999</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>111010001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0.80889</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.94314</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>111110001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.82065</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.94314</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>111110001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.80392</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.94314</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>111110001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>111000001001110110100001101001</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0.8156600000000001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.86283</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.76984</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>111000001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9044</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9432</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>111110001001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0.95464</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.94314</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>111110001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.95847</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.94314</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>111110001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.95847</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.94314</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>111110001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.9738</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.94314</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>111110001001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9738</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.98134</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>111111011001100110110001101001</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.98147</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.98148</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.98149</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.98148</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.98147</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.95075</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>111110011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.9784</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.95081</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>111110011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.97842</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.95081</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>111110011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.97841</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>111111011001110110110001101001</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.98149</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.9815</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.98148</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>111111011001111110110001101001</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.98151</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>111111011001111110110001111001</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.9815</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>111111011001111110110001111001</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.9815</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.98128</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>111111011001111110110001111001</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>111111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.98147</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.98128</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>111111011001111110110001111001</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>111111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.98146</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.98128</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>111111011001111110110001111001</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>111111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.98144</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.98128</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>111111011001111110110001111001</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>111111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.98144</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.74941</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>111111011001111110110001111001</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>110111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.95824</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.74926</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>111111011001111110110001111001</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>110111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.95822</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.74926</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>111111011001111110110001001001</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>110111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.91178</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.74941</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>111111011001111110110001001001</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>110111011001110110110001111001</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.95822</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.98128</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>111111011001110110110001111001</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>111111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0.98141</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.98128</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>111111011001110110110001111001</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>111111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0.98139</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.98128</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>111111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0.98141</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.98128</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>111111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0.98144</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.98128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>111111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0.98144</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.98128</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>111111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0.98144</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.98128</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>111111011001011110110001001001</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0.98144</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.98122</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.9815199999999999</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>111111011001111110110001001001</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>111111011001010110110001001001</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.98144</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.97374</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.9834000000000001</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>111111011101110110110001001001</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>111111001001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0.98088</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.97374</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>111111001001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0.98069</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.97374</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>111111001001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.9799099999999999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.97374</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>111111001001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0.9799099999999999</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.97374</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>111111001001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0.9799099999999999</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001001</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.98146</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001001</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.98146</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.97374</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>111111001001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0.98069</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.97374</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>111111001001110110110001001001</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0.98068</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001001</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001001</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001001</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001001</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001001</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001001</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001001</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001001</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001101</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001011</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001001</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001101</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>111111011001110110010001001101</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001101</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001101</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001101</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001101</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001101</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001101</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.95073</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>111110011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.97838</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>111111011001110100110000001101</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>111111011001110100110000001101</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001111</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>111111011001110100110000001101</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>111111011001110100110000001101</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>111111011001110100110000001101</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.98146</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>111111011001110110110001001101</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>111111011001110100110101001101</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.98338</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>111111011101110100110001001101</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.98164</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>111111011001110100110001011101</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>111111011001110100110001011101</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>111111011001110100110001011101</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>111111011001110100110001011101</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.98241</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>111111011011110100110001001101</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.98155</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.98241</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>111111011011110100110001001101</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.98155</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.98241</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>111111011011110100110001001101</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.98164</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.98241</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>111111011011110100110001001101</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.9817399999999999</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.98241</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>111111011011110100110001001101</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.98164</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.98241</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>111111011011110100110001001101</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001101</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.98164</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.98241</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>111111011011110100110001001101</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>111111011001110100010001001101</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.98154</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>111111011001110100100001001101</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.98144</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>111111011001110100100001001101</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.54861</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>101111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.89488</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.86152</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>111011011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.96946</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.98145</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.9205100000000001</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>111101011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.97536</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.9205100000000001</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>111101011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.97536</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.9205100000000001</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>111101011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.97536</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.9205100000000001</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>111101011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.96926</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.9205100000000001</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>111101011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.96926</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.9205100000000001</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.98145</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>111111011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>111101011001110100110001001101</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.96926</v>
       </c>
     </row>
   </sheetData>

--- a/DatosEjercicio1.xlsx
+++ b/DatosEjercicio1.xlsx
@@ -479,23 +479,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0007070721271976529</v>
+        <v>0.00214342142066912</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>000001101100111010101000000100</t>
+          <t>000010111101101000100000011100</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6007925604542835</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>110001100110110101111011111100</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.21729</v>
+        <v>0.3321736525627789</v>
       </c>
     </row>
     <row r="3">
@@ -503,23 +503,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1538240112587651</v>
+        <v>0.1341713522152357</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>011001000110011101111011111100</t>
+          <t>010111011100010101110010111000</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6008018322611379</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>110001100110110111100000010010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.40954</v>
+        <v>0.6879497476205769</v>
       </c>
     </row>
     <row r="4">
@@ -527,23 +527,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1538240112587651</v>
+        <v>0.571491802680177</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>011001000110011101111011111100</t>
+          <t>110000011000011101001100110111</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5963537583040392</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>110001011011000101111011111100</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.36474</v>
+        <v>0.8084437429100705</v>
       </c>
     </row>
     <row r="5">
@@ -551,23 +551,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1538240112587651</v>
+        <v>0.571491802680177</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>011001000110011101111011111100</t>
+          <t>110000011000011101001100110111</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5963537583040392</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>110001011011000101111011111100</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.38357</v>
+        <v>0.8122119887335193</v>
       </c>
     </row>
     <row r="6">
@@ -575,23 +575,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1577991753011244</v>
+        <v>0.5958967701499207</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>011001011011000101111011111100</t>
+          <t>110001011001111000010110110111</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5964572677620249</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>110001011011010111100000010010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.40899</v>
+        <v>0.818521359730519</v>
       </c>
     </row>
     <row r="7">
@@ -599,23 +599,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3407148726799306</v>
+        <v>0.5968208044344719</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>100101010110110111100000111100</t>
+          <t>110001011100010101001100010101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.3083448390584481</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100011100010011101011011110111</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.41354</v>
+        <v>0.8517349167001166</v>
       </c>
     </row>
     <row r="8">
@@ -623,23 +623,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3083448390584481</v>
+        <v>0.5968208044344719</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>100011100010011101011011110111</t>
+          <t>110001011100010101001100010101</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4710103040356988</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>101011111011000101111011010010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.3798</v>
+        <v>0.8888277132783552</v>
       </c>
     </row>
     <row r="9">
@@ -647,23 +647,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3083441160799367</v>
+        <v>0.8919278461257342</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>100011100010011101010000111100</t>
+          <t>111100011100010101110110110111</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4710103040356988</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>101011111011000101111011010010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.35255</v>
+        <v>0.9220165268633209</v>
       </c>
     </row>
     <row r="10">
@@ -671,23 +671,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.308344800789178</v>
+        <v>0.8981822057040343</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>100011100010011101011011010010</t>
+          <t>111100101001111000010110110111</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4710103513341658</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>101011111011000101111011110111</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.37824</v>
+        <v>0.9256177719676699</v>
       </c>
     </row>
     <row r="11">
@@ -695,23 +695,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.308344833886925</v>
+        <v>0.8981822057040343</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>100011100010011101011011110010</t>
+          <t>111100101001111000010110110111</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6484888662016129</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>110011100010011101011011110010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.39923</v>
+        <v>0.9249761723755741</v>
       </c>
     </row>
     <row r="12">
@@ -719,23 +719,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.308344833886925</v>
+        <v>0.8981243621069778</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>100011100010011101011011110010</t>
+          <t>111100101001110000010110110111</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6484888662016129</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>110011100010011101011011110010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.43488</v>
+        <v>0.9219902253114782</v>
       </c>
     </row>
     <row r="13">
@@ -743,23 +743,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.308344800789178</v>
+        <v>0.8974701343701121</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>100011100010011101011011010010</t>
+          <t>111100101000010101110110110110</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.6950698899297233</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>110101010110110111101011110110</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.49279</v>
+        <v>0.9256187945627609</v>
       </c>
     </row>
     <row r="14">
@@ -767,23 +767,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.308344800789178</v>
+        <v>0.8974701343701121</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>100011100010011101011011010010</t>
+          <t>111100101000010101110110110110</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6484888662016129</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>110011100010011101011011110010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.48813</v>
+        <v>0.9225616483540797</v>
       </c>
     </row>
     <row r="15">
@@ -791,23 +791,23 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.308344833886925</v>
+        <v>0.8974701361346872</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>100011100010011101011011110010</t>
+          <t>111100101000010101110110110111</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6484888662016129</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>110011100010011101011011110010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5528</v>
+        <v>0.9200680721233914</v>
       </c>
     </row>
     <row r="16">
@@ -815,23 +815,23 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.308344833886925</v>
+        <v>0.8974601963110691</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>100011100010011101011011110010</t>
+          <t>111100101000010100011110110110</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8654287849261441</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>111011100010011100011011110010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.60171</v>
+        <v>0.9200681809694858</v>
       </c>
     </row>
     <row r="17">
@@ -839,23 +839,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.308344833886925</v>
+        <v>0.8974304971589266</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>100011100010011101011011110010</t>
+          <t>111100101000010000010111110111</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8654287849261441</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>111011100010011100011011110010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6029600000000001</v>
+        <v>0.9200680527798817</v>
       </c>
     </row>
     <row r="18">
@@ -863,23 +863,23 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6484827223558067</v>
+        <v>0.8974601963110691</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>110011100010011100011011110010</t>
+          <t>111100101000010100011110110110</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8654358824462685</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>111011100010011101011011110010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.71518</v>
+        <v>0.9170146665295249</v>
       </c>
     </row>
     <row r="19">
@@ -887,23 +887,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6484888662016129</v>
+        <v>0.8974601963110691</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>110011100010011101011011110010</t>
+          <t>111100101000010100011110110110</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8654358824462685</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>111011100010011101011011110010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.71439</v>
+        <v>0.9139660604252796</v>
       </c>
     </row>
     <row r="20">
@@ -911,23 +911,23 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6484888662016129</v>
+        <v>0.8974601963110691</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>110011100010011101011011110010</t>
+          <t>111100101000010100011110110110</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8654358824462685</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>111011100010011101011011110010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.77948</v>
+        <v>0.9168003435209615</v>
       </c>
     </row>
     <row r="21">
@@ -935,23 +935,23 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5991290192223174</v>
+        <v>0.8974601963110691</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>110001100010011100011011110010</t>
+          <t>111100101000010100011110110110</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8654358824462685</v>
+        <v>0.940011667090647</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>111011100010011101011011110010</t>
+          <t>111110000011001111100111010110</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.79621</v>
+        <v>0.9260598640371173</v>
       </c>
     </row>
   </sheetData>
@@ -1010,23 +1010,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002867102439876501</v>
+        <v>0.004042122101721022</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>000011011011010100100101100101</t>
+          <t>000100000100011010100000100100</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7595642194778255</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>110111110001110010010011111101</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.35538</v>
+        <v>0.1587726379927297</v>
       </c>
     </row>
     <row r="3">
@@ -1034,23 +1034,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2030063967749262</v>
+        <v>0.01514351885708072</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>011100110101100000001101001110</t>
+          <t>000111111000000011001011100001</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7595642194778255</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>110111110001110010010011111101</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5421899999999999</v>
+        <v>0.258408218054288</v>
       </c>
     </row>
     <row r="4">
@@ -1058,23 +1058,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2029605979605417</v>
+        <v>0.0522896853728062</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>011100110101010010111000011111</t>
+          <t>001110101000101000010011100101</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7595638574706436</v>
+        <v>0.8425505105006384</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>110111110001110010010000011110</t>
+          <t>111010101111101111011010110111</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.53232</v>
+        <v>0.5594876327382082</v>
       </c>
     </row>
     <row r="5">
@@ -1082,23 +1082,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2030706010172805</v>
+        <v>0.8393393836020866</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>011100110101110010111000011111</t>
+          <t>111010101000100100011100110100</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6182230302009857</v>
+        <v>0.8425505105006384</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>110010010100100100011000011110</t>
+          <t>111010101111101111011010110111</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.56412</v>
+        <v>0.839679361651567</v>
       </c>
     </row>
     <row r="6">
@@ -1106,23 +1106,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5525121603899089</v>
+        <v>0.8393393853085577</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>101111100100100110101011100011</t>
+          <t>111010101000100100011100110101</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6305834819470266</v>
+        <v>0.8425505105006384</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>110010110100100110101011100011</t>
+          <t>111010101111101111011010110111</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.60814</v>
+        <v>0.8396820567029424</v>
       </c>
     </row>
     <row r="7">
@@ -1130,23 +1130,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5740160710476105</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>110000011111010010011000011110</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6556288279293804</v>
+        <v>0.8425505105006384</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>110011110100100100011000011110</t>
+          <t>111010101111101111011010110111</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.62412</v>
+        <v>0.8396847517543206</v>
       </c>
     </row>
     <row r="8">
@@ -1154,23 +1154,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5819158652871373</v>
+        <v>0.1731969530371927</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>110000110100100100011000011110</t>
+          <t>011010101000101000010011100101</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6556288279293804</v>
+        <v>0.8425505105006384</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>110011110100100100011000011110</t>
+          <t>111010101111101111011010110111</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.62824</v>
+        <v>0.7716424025034292</v>
       </c>
     </row>
     <row r="9">
@@ -1178,23 +1178,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5819158652871373</v>
+        <v>0.1731969530371927</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>110000110100100100011000011110</t>
+          <t>011010101000101000010011100101</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8425505105006384</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111010101111101111011010110111</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.64075</v>
+        <v>0.7730678136464558</v>
       </c>
     </row>
     <row r="10">
@@ -1202,23 +1202,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6182230302009857</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>110010010100100100011000011110</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8425505105006384</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111010101111101111011010110111</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.64315</v>
+        <v>0.8396848404922629</v>
       </c>
     </row>
     <row r="11">
@@ -1226,23 +1226,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6182230302009857</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>110010010100100100011000011110</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8425505105006384</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111010101111101111011010110111</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.68435</v>
+        <v>0.8396850138725516</v>
       </c>
     </row>
     <row r="12">
@@ -1250,23 +1250,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6182230302009857</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>110010010100100100011000011110</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8425505105006384</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111010101111101111011010110111</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.6831199999999999</v>
+        <v>0.8396850138725513</v>
       </c>
     </row>
     <row r="13">
@@ -1274,23 +1274,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6182230302009857</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>110010010100100100011000011110</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.70682</v>
+        <v>0.8515277621030475</v>
       </c>
     </row>
     <row r="14">
@@ -1298,23 +1298,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6182230302009857</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>110010010100100100011000011110</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.830416147873499</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>111010010100100100011010011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.74802</v>
+        <v>0.8518461704662272</v>
       </c>
     </row>
     <row r="15">
@@ -1322,23 +1322,23 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6182230302009857</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>110010010100100100011000011110</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8591514521674863</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>111011010100100110011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.76963</v>
+        <v>0.852065108663577</v>
       </c>
     </row>
     <row r="16">
@@ -1346,23 +1346,23 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6182230302009857</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>110010010100100100011000011110</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8591514521674863</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>111011010100100110011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.81494</v>
+        <v>0.8519754959462629</v>
       </c>
     </row>
     <row r="17">
@@ -1370,23 +1370,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6182230302009857</v>
+        <v>0.8393661156840529</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>110010010100100100011000011110</t>
+          <t>111010101000101000010001100101</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.78798</v>
+        <v>0.8548630049721144</v>
       </c>
     </row>
     <row r="18">
@@ -1394,23 +1394,23 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6182230302009857</v>
+        <v>0.8393112902041416</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>110010010100100100011000011110</t>
+          <t>111010101000100000011011100101</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8092</v>
+        <v>0.8575210551378076</v>
       </c>
     </row>
     <row r="19">
@@ -1418,23 +1418,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8393112902041416</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111010101000100000011011100101</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.83042</v>
+        <v>0.8550812676069348</v>
       </c>
     </row>
     <row r="20">
@@ -1442,23 +1442,23 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.83042</v>
+        <v>0.8635145915331538</v>
       </c>
     </row>
     <row r="21">
@@ -1466,23 +1466,23 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8393663341158408</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111010101000101000010011100101</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.83042</v>
+        <v>0.8664066140398688</v>
       </c>
     </row>
     <row r="22">
@@ -1490,23 +1490,23 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4372801298507747</v>
+        <v>0.8393662248999433</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>101010010100100100011000011110</t>
+          <t>111010101000101000010010100101</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.7911</v>
+        <v>0.8698852481124305</v>
       </c>
     </row>
     <row r="23">
@@ -1514,23 +1514,23 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4372801298507747</v>
+        <v>0.8393104165058094</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>101010010100100100011000011110</t>
+          <t>111010101000100000010011100101</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.7911</v>
+        <v>0.872498477457019</v>
       </c>
     </row>
     <row r="24">
@@ -1538,23 +1538,23 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8393104165058094</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111010101000100000010011100101</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.83042</v>
+        <v>0.8751173751563736</v>
       </c>
     </row>
     <row r="25">
@@ -1562,23 +1562,23 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8393103072935497</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111010101000100000010010100101</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.83042</v>
+        <v>0.8751229736114874</v>
       </c>
     </row>
     <row r="26">
@@ -1586,23 +1586,23 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.1864463868068033</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>011011101000101000010011100101</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.83042</v>
+        <v>0.8101098827454749</v>
       </c>
     </row>
     <row r="27">
@@ -1610,23 +1610,23 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8682407679145553</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111011101000101000010011100101</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.8304228830745312</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>111010010100100101011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.83042</v>
+        <v>0.8782890539882743</v>
       </c>
     </row>
     <row r="28">
@@ -1634,23 +1634,23 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8682407679145553</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111011101000101000010011100101</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8304220140147986</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>111010010100100101010000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.83042</v>
+        <v>0.8785623442027806</v>
       </c>
     </row>
     <row r="29">
@@ -1658,23 +1658,23 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.4668431674873815</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>101011101110101000010011100101</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.8304220140147986</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>111010010100100101010000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.83042</v>
+        <v>0.838422584160063</v>
       </c>
     </row>
     <row r="30">
@@ -1682,23 +1682,23 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8682407679145553</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111011101000101000010011100101</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8304220140147986</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>111010010100100101010000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.83042</v>
+        <v>0.8793821258437413</v>
       </c>
     </row>
     <row r="31">
@@ -1706,23 +1706,23 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4372845443261122</v>
+        <v>0.8682407679145553</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>101010010100100101010000011110</t>
+          <t>111011101000101000010011100101</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8304163651376221</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>111010010100100100011100011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.7911</v>
+        <v>0.878835634624709</v>
       </c>
     </row>
     <row r="32">
@@ -1730,23 +1730,23 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4372845443261122</v>
+        <v>0.8682407679145553</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>101010010100100101010000011110</t>
+          <t>111011101000101000010011100101</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8304163668349982</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>111010010100100100011100011111</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.7911</v>
+        <v>0.8791089246317931</v>
       </c>
     </row>
     <row r="33">
@@ -1754,23 +1754,23 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8682407679145553</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111011101000101000010011100101</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8304163668349982</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>111010010100100100011100011111</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.83042</v>
+        <v>0.8791089260224585</v>
       </c>
     </row>
     <row r="34">
@@ -1778,23 +1778,23 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8682407679145553</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111011101000101000010011100101</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8304163651376221</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>111010010100100100011100011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.83042</v>
+        <v>0.8791090148853181</v>
       </c>
     </row>
     <row r="35">
@@ -1802,23 +1802,23 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8682416548075493</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111011101000101000011011100100</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8304163651376221</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>111010010100100100011100011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.83042</v>
+        <v>0.8788359023965313</v>
       </c>
     </row>
     <row r="36">
@@ -1826,23 +1826,23 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8682416548075493</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111011101000101000011011100100</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8304163651376221</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>111010010100100100011100011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.83042</v>
+        <v>0.8791091065295087</v>
       </c>
     </row>
     <row r="37">
@@ -1850,23 +1850,23 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8682416548075493</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111011101000101000011011100100</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.8304163651376221</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>111010010100100100011100011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.83042</v>
+        <v>0.8791092857495469</v>
       </c>
     </row>
     <row r="38">
@@ -1874,23 +1874,23 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8136215146172229</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111001101110101000011011101101</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.83042</v>
+        <v>0.8739210947132223</v>
       </c>
     </row>
     <row r="39">
@@ -1898,23 +1898,23 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8136215146172229</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111001101110101000011011101101</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.83042</v>
+        <v>0.8739227051065571</v>
       </c>
     </row>
     <row r="40">
@@ -1922,23 +1922,23 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8136215146172229</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111001101110101000011011101101</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.83042</v>
+        <v>0.8739248425635511</v>
       </c>
     </row>
     <row r="41">
@@ -1946,23 +1946,23 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8136215146172229</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111001101110101000011011101101</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.83042</v>
+        <v>0.8681889094345255</v>
       </c>
     </row>
     <row r="42">
@@ -1970,23 +1970,23 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6182230302009857</v>
+        <v>0.8136215011762309</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>110010010100100100011000011110</t>
+          <t>111001101110101000011011100101</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8092</v>
+        <v>0.8509825003612302</v>
       </c>
     </row>
     <row r="43">
@@ -1994,23 +1994,23 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8304141924976701</v>
+        <v>0.8136215011762309</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>111010010100100100001000011110</t>
+          <t>111001101110101000011011100101</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.83042</v>
+        <v>0.8624536925461925</v>
       </c>
     </row>
     <row r="44">
@@ -2018,23 +2018,23 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8136215011762309</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111001101110101000011011100101</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.83042</v>
+        <v>0.850982545263604</v>
       </c>
     </row>
     <row r="45">
@@ -2042,23 +2042,23 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.7995886480617792</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111001001110101000011011101101</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.83042</v>
+        <v>0.8438433323858174</v>
       </c>
     </row>
     <row r="46">
@@ -2066,23 +2066,23 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1691443293249757</v>
+        <v>0.7995954702596314</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>011010010100100100011000011110</t>
+          <t>111001001110101001011011101101</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8304159849254252</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>111010010100100100011000111110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.76429</v>
+        <v>0.85531516049752</v>
       </c>
     </row>
     <row r="47">
@@ -2090,23 +2090,23 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1691443293249757</v>
+        <v>0.8136215146172229</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>011010010100100100011000011110</t>
+          <t>111001101110101000011011101101</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.76429</v>
+        <v>0.8681896017402222</v>
       </c>
     </row>
     <row r="48">
@@ -2114,23 +2114,23 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1691443293249757</v>
+        <v>0.81362839641972</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>011010010100100100011000011110</t>
+          <t>111001101110101001011011101101</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.76429</v>
+        <v>0.8739255349158027</v>
       </c>
     </row>
     <row r="49">
@@ -2138,23 +2138,23 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1691443293249757</v>
+        <v>0.81362839641972</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>011010010100100100011000011110</t>
+          <t>111001101110101001011011101101</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.8591373087895494</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>111011010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.76716</v>
+        <v>0.8681895834610426</v>
       </c>
     </row>
     <row r="50">
@@ -2162,23 +2162,23 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.813628409860769</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111001101110101001011011110101</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.8591373087895494</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>111011010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.83329</v>
+        <v>0.873924827019142</v>
       </c>
     </row>
     <row r="51">
@@ -2186,23 +2186,23 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8564525533977159</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111011001110101000011011110111</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.8591373087895494</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>111011010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.8419</v>
+        <v>0.8767565523602079</v>
       </c>
     </row>
     <row r="52">
@@ -2210,23 +2210,23 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7744380180018426</v>
+        <v>0.856459610566645</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>111000010100100100011000011110</t>
+          <t>111011001110101001011011110101</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8591373087895494</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>111011010100100100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.83343</v>
+        <v>0.8782093673096038</v>
       </c>
     </row>
     <row r="53">
@@ -2234,23 +2234,23 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7744380180018426</v>
+        <v>0.8564595829860552</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>111000010100100100011000011110</t>
+          <t>111011001110101001011011100101</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.83346</v>
+        <v>0.8767579582545926</v>
       </c>
     </row>
     <row r="54">
@@ -2258,23 +2258,23 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.8564595829860552</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111011001110101001011011100101</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.84772</v>
+        <v>0.8753058402831932</v>
       </c>
     </row>
     <row r="55">
@@ -2282,23 +2282,23 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.799595483584265</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111001001110101001011011110101</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.84774</v>
+        <v>0.8710715483376965</v>
       </c>
     </row>
     <row r="56">
@@ -2306,23 +2306,23 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8304159306094043</v>
+        <v>0.799595483584265</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>111010010100100100011000011110</t>
+          <t>111001001110101001011011110101</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.84774</v>
+        <v>0.872523671848497</v>
       </c>
     </row>
     <row r="57">
@@ -2330,23 +2330,23 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8305271735438926</v>
+        <v>0.8709808180940584</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>111010010100110100011000011110</t>
+          <t>111011101110101001011011110101</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.8593070370082041</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>111011010100111100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.85638</v>
+        <v>0.8796622052994764</v>
       </c>
     </row>
     <row r="58">
@@ -2354,23 +2354,23 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8305271735438926</v>
+        <v>0.8709808180940584</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>111010010100110100011000011110</t>
+          <t>111011101110101001011011110101</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.8593070370082041</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>111011010100111100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.85064</v>
+        <v>0.8796622052994764</v>
       </c>
     </row>
     <row r="59">
@@ -2378,23 +2378,23 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8591938829997892</v>
+        <v>0.8700696663449019</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>111011010100101100011000011110</t>
+          <t>111011101100101001011011110101</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.8593070370082041</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>111011010100111100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.85926</v>
+        <v>0.8795710901245606</v>
       </c>
     </row>
     <row r="60">
@@ -2402,23 +2402,23 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8591373087895494</v>
+        <v>0.8700696663449019</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>111011010100100100011000011110</t>
+          <t>111011101100101001011011110101</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.8593070370082041</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>111011010100111100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.85926</v>
+        <v>0.8795710901245606</v>
       </c>
     </row>
     <row r="61">
@@ -2426,23 +2426,23 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8700696663449019</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101100101001011011110101</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.8593070370082041</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>111011010100111100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.85926</v>
+        <v>0.8795710901245606</v>
       </c>
     </row>
     <row r="62">
@@ -2450,23 +2450,23 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8592575312127519</v>
+        <v>0.8700696663449019</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>111011010100110101011000011110</t>
+          <t>111011101100101001011011110101</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.8593070370082041</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>111011010100111100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.85926</v>
+        <v>0.8795710901245606</v>
       </c>
     </row>
     <row r="63">
@@ -2474,23 +2474,23 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8700696663449019</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101100101001011011110101</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.8592575312127519</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>111011010100110101011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.85925</v>
+        <v>0.8795710901245606</v>
       </c>
     </row>
     <row r="64">
@@ -2498,23 +2498,23 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8591373087895494</v>
+        <v>0.8700696663449019</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>111011010100100100011000011110</t>
+          <t>111011101100101001011011110101</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.8592575312127519</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>111011010100110101011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.85924</v>
+        <v>0.8795710901245606</v>
       </c>
     </row>
     <row r="65">
@@ -2522,23 +2522,23 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8591373087895494</v>
+        <v>0.8709808180940584</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>111011010100100100011000011110</t>
+          <t>111011101110101001011011110101</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.8592575312127519</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>111011010100110101011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.85924</v>
+        <v>0.8796622052994764</v>
       </c>
     </row>
     <row r="66">
@@ -2546,23 +2546,23 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.859248691042202</v>
+        <v>0.8709805955867075</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>111011010100110100001000011110</t>
+          <t>111011101110101001011001110101</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.8592575312127519</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>111011010100110101011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.85925</v>
+        <v>0.8796621830487412</v>
       </c>
     </row>
     <row r="67">
@@ -2570,23 +2570,23 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8709805955867075</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110101001011001110101</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.8592575312127519</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>111011010100110101011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.85925</v>
+        <v>0.8796621607980061</v>
       </c>
     </row>
     <row r="68">
@@ -2594,23 +2594,23 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8709808180940584</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110101001011011110101</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.85925</v>
+        <v>0.8796622052994764</v>
       </c>
     </row>
     <row r="69">
@@ -2618,23 +2618,23 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8709808180940584</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110101001011011110101</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.85925</v>
+        <v>0.8796622052994764</v>
       </c>
     </row>
     <row r="70">
@@ -2642,23 +2642,23 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6431360498678885</v>
+        <v>0.8709790380360466</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>110011010100110100011000011110</t>
+          <t>111011101110101001001011110101</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.8376400000000001</v>
+        <v>0.8796620272936752</v>
       </c>
     </row>
     <row r="71">
@@ -2666,23 +2666,23 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6431360498678885</v>
+        <v>0.8709808180940584</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>110011010100110100011000011110</t>
+          <t>111011101110101001011011110101</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.8376400000000001</v>
+        <v>0.8796622052994764</v>
       </c>
     </row>
     <row r="72">
@@ -2690,23 +2690,23 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6431360498678885</v>
+        <v>0.8709808180940584</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>110011010100110100011000011110</t>
+          <t>111011101110101001011011110101</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.8376400000000001</v>
+        <v>0.8796735980491019</v>
       </c>
     </row>
     <row r="73">
@@ -2714,23 +2714,23 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8673390721203869</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011100110101001011011110101</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.85925</v>
+        <v>0.8793208162013606</v>
       </c>
     </row>
     <row r="74">
@@ -2738,23 +2738,23 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8673390721203869</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011100110101001011011110101</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.85925</v>
+        <v>0.8789680343536193</v>
       </c>
     </row>
     <row r="75">
@@ -2762,23 +2762,23 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8590241659570054</v>
+        <v>0.8673390721203869</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>111011010100010100011000011110</t>
+          <t>111011100110101001011011110101</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.85923</v>
+        <v>0.8793549944502379</v>
       </c>
     </row>
     <row r="76">
@@ -2786,23 +2786,23 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8590241659570054</v>
+        <v>0.8709808180940584</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>111011010100010100011000011110</t>
+          <t>111011101110101001011011110101</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.85923</v>
+        <v>0.8797191690476049</v>
       </c>
     </row>
     <row r="77">
@@ -2810,23 +2810,23 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8590241659570054</v>
+        <v>0.8709808180940584</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>111011010100010100011000011110</t>
+          <t>111011101110101001011011110101</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.85923</v>
+        <v>0.8797419545468564</v>
       </c>
     </row>
     <row r="78">
@@ -2834,23 +2834,23 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8590241659570054</v>
+        <v>0.8701835342365143</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>111011010100010100011000011110</t>
+          <t>111011101100111001011011110101</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.85923</v>
+        <v>0.8796736189107278</v>
       </c>
     </row>
     <row r="79">
@@ -2858,23 +2858,23 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.859222170803401</v>
+        <v>0.8701835342365143</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>111011010100110000011000011110</t>
+          <t>111011101100111001011011110101</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.85925</v>
+        <v>0.8796736189107278</v>
       </c>
     </row>
     <row r="80">
@@ -2882,23 +2882,23 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8701835342365143</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101100111001011011110101</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.85925</v>
+        <v>0.8796736189107278</v>
       </c>
     </row>
     <row r="81">
@@ -2906,23 +2906,23 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8592495750572107</v>
+        <v>0.8710947177750763</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>111011010100110100010000011110</t>
+          <t>111011101110111001011011100101</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.85925</v>
+        <v>0.8797647372645839</v>
       </c>
     </row>
     <row r="82">
@@ -2930,23 +2930,23 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8590241659570054</v>
+        <v>0.8710947177750763</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>111011010100010100011000011110</t>
+          <t>111011101110111001011011100101</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.8737952073061559</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>111011110100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.86068</v>
+        <v>0.8797647344830599</v>
       </c>
     </row>
     <row r="83">
@@ -2954,23 +2954,23 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8590241659570054</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>111011010100010100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.85923</v>
+        <v>0.8797647400461079</v>
       </c>
     </row>
     <row r="84">
@@ -2978,23 +2978,23 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8305271735438926</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>111010010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.85636</v>
+        <v>0.8797647400461079</v>
       </c>
     </row>
     <row r="85">
@@ -3002,23 +3002,23 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8590241659570054</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>111011010100010100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.85921</v>
+        <v>0.8797647400461079</v>
       </c>
     </row>
     <row r="86">
@@ -3026,23 +3026,23 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8590241659570054</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>111011010100010100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.8591800000000001</v>
+        <v>0.8797647400461079</v>
       </c>
     </row>
     <row r="87">
@@ -3050,23 +3050,23 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8022921692660208</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>111001010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.85344</v>
+        <v>0.8797647400461079</v>
       </c>
     </row>
     <row r="88">
@@ -3074,23 +3074,23 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8022921692660208</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>111001010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.8737952073061559</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>111011110100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.85342</v>
+        <v>0.8797647428276318</v>
       </c>
     </row>
     <row r="89">
@@ -3098,23 +3098,23 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8590241659570054</v>
+        <v>0.8137385226597535</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>111011010100010100011000011110</t>
+          <t>111001101110111001011011110101</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.8737952073061559</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>111011110100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.86055</v>
+        <v>0.8740291219253378</v>
       </c>
     </row>
     <row r="90">
@@ -3122,23 +3122,23 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8590241659570054</v>
+        <v>0.8137385361017121</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>111011010100010100011000011110</t>
+          <t>111001101110111001011011111101</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.8737952073061559</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>111011110100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.86493</v>
+        <v>0.8740291218787716</v>
       </c>
     </row>
     <row r="91">
@@ -3146,23 +3146,23 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.8737952073061559</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>111011110100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.8678900000000001</v>
+        <v>0.8797647456091559</v>
       </c>
     </row>
     <row r="92">
@@ -3170,23 +3170,23 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8137385226597535</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111001101110111001011011110101</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.9790264136968947</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>111111010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.87843</v>
+        <v>0.874029102454671</v>
       </c>
     </row>
     <row r="93">
@@ -3194,23 +3194,23 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8710945369760309</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110111001011001111101</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.9790264136968947</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>111111010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.889</v>
+        <v>0.8797647275292514</v>
       </c>
     </row>
     <row r="94">
@@ -3218,23 +3218,23 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.9790264136968947</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>111111010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.8784999999999999</v>
+        <v>0.8797647497814418</v>
       </c>
     </row>
     <row r="95">
@@ -3242,23 +3242,23 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.9790264136968947</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>111111010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.89193</v>
+        <v>0.8797647497814418</v>
       </c>
     </row>
     <row r="96">
@@ -3266,23 +3266,23 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.9790264136968947</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>111111010100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.87995</v>
+        <v>0.8797647483906799</v>
       </c>
     </row>
     <row r="97">
@@ -3290,23 +3290,23 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.8737952073061559</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>111011110100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.86797</v>
+        <v>0.8797647456091559</v>
       </c>
     </row>
     <row r="98">
@@ -3314,23 +3314,23 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.8737952073061559</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>111011110100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.8694</v>
+        <v>0.8797647469999179</v>
       </c>
     </row>
     <row r="99">
@@ -3338,23 +3338,23 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.8737952073061559</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>111011110100110100011000011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.87234</v>
+        <v>0.8797647483906799</v>
       </c>
     </row>
     <row r="100">
@@ -3362,23 +3362,23 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.8737953187394434</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>111011110100110100011001011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.87234</v>
+        <v>0.8797647497814418</v>
       </c>
     </row>
     <row r="101">
@@ -3386,23 +3386,23 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8592504590726741</v>
+        <v>0.8710947455903157</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>111011010100110100011000011110</t>
+          <t>111011101110111001011011110101</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.8737953187394434</v>
+        <v>0.9577946901482364</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>111011110100110100011001011110</t>
+          <t>111110101000101000011011100101</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.87234</v>
+        <v>0.8797647497814418</v>
       </c>
     </row>
   </sheetData>
@@ -3461,23 +3461,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.099451601651991</v>
+        <v>0.005409813467099281</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>010100001011101101100110000111</t>
+          <t>000100101101010001000100010011</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9141807510637203</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>111101001100010011001101111101</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.44652</v>
+        <v>0.2847227943438083</v>
       </c>
     </row>
     <row r="3">
@@ -3485,23 +3485,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.498616751080119</v>
+        <v>0.07033751986651138</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>101101001100010011001101111101</t>
+          <t>010000111110010011110010101001</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9164301243925971</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>111101010001000111011000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.73516</v>
+        <v>0.5604674052783171</v>
       </c>
     </row>
     <row r="4">
@@ -3509,23 +3509,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6416873180178447</v>
+        <v>0.6060507942090705</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>110011010001000111011101111101</t>
+          <t>110001110100101101001011001101</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9289513444653905</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>111101101011110011111100110010</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.82483</v>
+        <v>0.6764268873299923</v>
       </c>
     </row>
     <row r="5">
@@ -3533,23 +3533,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6416868211555924</v>
+        <v>0.6060507942090705</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>110011010001000111011000110000</t>
+          <t>110001110100101101001011001101</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9164301243925971</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>111101010001000111011000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.79526</v>
+        <v>0.6764662827635858</v>
       </c>
     </row>
     <row r="6">
@@ -3557,23 +3557,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6416868211555924</v>
+        <v>0.6060507014055191</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>110011010001000111011000110000</t>
+          <t>110001110100101101001010001101</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9164301243925971</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>111101010001000111011000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.79378</v>
+        <v>0.6856930388289459</v>
       </c>
     </row>
     <row r="7">
@@ -3581,23 +3581,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6911045925593498</v>
+        <v>0.605860747429791</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>110101001101000111011000110000</t>
+          <t>110001110100001101001011001101</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9164301243925971</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>111101010001000111011000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.89311</v>
+        <v>0.6949470919482966</v>
       </c>
     </row>
     <row r="8">
@@ -3605,23 +3605,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6911045925593498</v>
+        <v>0.5977677522816723</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>110101001101000111011000110000</t>
+          <t>110001011110110101110010101001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9164307181706051</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>111101010001000111011101111101</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.87058</v>
+        <v>0.684892014083695</v>
       </c>
     </row>
     <row r="9">
@@ -3629,23 +3629,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6911030069298276</v>
+        <v>0.5977677580421217</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>110101001101000111001000110000</t>
+          <t>110001011110110101110010101101</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9165469864638962</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>111101010001010111011000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.87055</v>
+        <v>0.6801578533848393</v>
       </c>
     </row>
     <row r="10">
@@ -3653,23 +3653,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9089664490371261</v>
+        <v>0.5977677580421217</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111101000001000111011000110000</t>
+          <t>110001011110110101110010101101</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9165159442495211</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>111101010001010011001000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.91557</v>
+        <v>0.6862917653698573</v>
       </c>
     </row>
     <row r="11">
@@ -3677,23 +3677,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9159627506132069</v>
+        <v>0.6058644068016218</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>111101010000000111011000110000</t>
+          <t>110001110100001101110010101001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9165159442495211</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>111101010001010011001000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9162400000000001</v>
+        <v>0.6924474264271475</v>
       </c>
     </row>
     <row r="12">
@@ -3701,23 +3701,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.6058644068016218</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110001110100001101110010101001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9165177702475795</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>111101010001010011011000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9164099999999999</v>
+        <v>0.7123597022270459</v>
       </c>
     </row>
     <row r="13">
@@ -3725,23 +3725,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.6058644068016218</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110001110100001101110010101001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9165177702475795</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>111101010001010011011000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.91632</v>
+        <v>0.712335615144811</v>
       </c>
     </row>
     <row r="14">
@@ -3749,23 +3749,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.605816899619942</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110001110100000101110010101001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9201715765261137</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>111101011001000111001000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9167</v>
+        <v>0.7123364863818618</v>
       </c>
     </row>
     <row r="15">
@@ -3773,23 +3773,23 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9159608681229917</v>
+        <v>0.6058644068016218</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>111101010000000111001000010000</t>
+          <t>110001110100001101110010101001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9165159442495211</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>111101010001010011001000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9162400000000001</v>
+        <v>0.7375639897236664</v>
       </c>
     </row>
     <row r="16">
@@ -3797,23 +3797,23 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.6058644068016218</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110001110100001101110010101001</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9165158871871112</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>111101010001010011001000010000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.91621</v>
+        <v>0.7230086861103258</v>
       </c>
     </row>
     <row r="17">
@@ -3821,23 +3821,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.6058644068016218</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110001110100001101110010101001</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.9165159442495211</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>111101010001010011001000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.91614</v>
+        <v>0.7375851547548314</v>
       </c>
     </row>
     <row r="18">
@@ -3845,23 +3845,23 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.7513645415329857</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110111011110011101110010101001</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9165159442495211</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>111101010001010011001000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9161899999999999</v>
+        <v>0.7521351475586299</v>
       </c>
     </row>
     <row r="19">
@@ -3869,23 +3869,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.7513645415329857</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110111011110011101110010101001</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9165159442495211</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>111101010001010011001000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9161899999999999</v>
+        <v>0.7521351682279678</v>
       </c>
     </row>
     <row r="20">
@@ -3893,23 +3893,23 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.7513645415329857</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110111011110011101110010101001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9773267813261457</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>111111010001010011001000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.92218</v>
+        <v>0.7520928404008117</v>
       </c>
     </row>
     <row r="21">
@@ -3917,23 +3917,23 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.7513645415329857</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110111011110011101110010101001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.9773305525333712</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>111111010001010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.92218</v>
+        <v>0.7520928407237703</v>
       </c>
     </row>
     <row r="22">
@@ -3941,23 +3941,23 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5455304023479201</v>
+        <v>0.7513645415329857</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>101111010001010011101000110000</t>
+          <t>110111011110011101110010101001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9773305525333712</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>111111010001010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.89738</v>
+        <v>0.7521140046373482</v>
       </c>
     </row>
     <row r="23">
@@ -3965,23 +3965,23 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.7513645415329857</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110111011110011101110010101001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.9773305525333712</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>111111010001010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.95895</v>
+        <v>0.7521034226309886</v>
       </c>
     </row>
     <row r="24">
@@ -3989,23 +3989,23 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.7515761806687664</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110111011110111101110010101001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.979262366169806</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>111111010101010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.96527</v>
+        <v>0.7521563331104212</v>
       </c>
     </row>
     <row r="25">
@@ -4013,23 +4013,23 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.7515761806687664</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110111011110111101110010101001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.979262366169806</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>111111010101010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.95943</v>
+        <v>0.7521563324645043</v>
       </c>
     </row>
     <row r="26">
@@ -4037,23 +4037,23 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9160485485840504</v>
+        <v>0.7515761677504293</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>111101010000010011001000110000</t>
+          <t>110111011110111101110010100001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.979262366169806</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>111111010101010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.97159</v>
+        <v>0.7521563311726707</v>
       </c>
     </row>
     <row r="27">
@@ -4061,23 +4061,23 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9160521996506635</v>
+        <v>0.7515761677504293</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>111101010000010011101000110000</t>
+          <t>110111011110111101110010100001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.979262366169806</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>111111010101010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.97178</v>
+        <v>0.752156332787463</v>
       </c>
     </row>
     <row r="28">
@@ -4085,23 +4085,23 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2396855035299154</v>
+        <v>0.7515761677504293</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>011111010101010011101000110000</t>
+          <t>110111011110111101110010100001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.979262366169806</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>111111010101010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.89208</v>
+        <v>0.7521563331104214</v>
       </c>
     </row>
     <row r="29">
@@ -4109,23 +4109,23 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9160521996506635</v>
+        <v>0.7515761289954186</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>111101010000010011101000110000</t>
+          <t>110111011110111101110010001001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.979262366169806</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>111111010101010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9597599999999999</v>
+        <v>0.7521563718654389</v>
       </c>
     </row>
     <row r="30">
@@ -4133,23 +4133,23 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7458021315670008</v>
+        <v>0.7515761289954186</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>110111010001010011001000010000</t>
+          <t>110111011110111101110010001001</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.979262366169806</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>111111010101010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.95456</v>
+        <v>0.7521564561576007</v>
       </c>
     </row>
     <row r="31">
@@ -4157,23 +4157,23 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7515762065054411</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111011110111101110010111001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.979262366169806</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>111111010101010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9779099999999999</v>
+        <v>0.752156628940384</v>
       </c>
     </row>
     <row r="32">
@@ -4181,23 +4181,23 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7515762065054411</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111011110111101110010111001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.979262366169806</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>111111010101010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.97772</v>
+        <v>0.752156628940384</v>
       </c>
     </row>
     <row r="33">
@@ -4205,23 +4205,23 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.6983697113122881</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110101011110111101110110101011</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.979262366169806</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>111111010101010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.97793</v>
+        <v>0.7468359794210687</v>
       </c>
     </row>
     <row r="34">
@@ -4229,23 +4229,23 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.6983697113122881</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110101011110111101110110101011</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.979262366169806</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>111111010101010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9777400000000001</v>
+        <v>0.7468360184990445</v>
       </c>
     </row>
     <row r="35">
@@ -4253,23 +4253,23 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.6983697113122881</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110101011110111101110110101011</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9792623071864296</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>111111010101010011101000010000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9775199999999999</v>
+        <v>0.7415153299017534</v>
       </c>
     </row>
     <row r="36">
@@ -4277,23 +4277,23 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.6983697113122881</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110101011110111101110110101011</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9792623071864296</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>111111010101010011101000010000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9775199999999999</v>
+        <v>0.7415153299017534</v>
       </c>
     </row>
     <row r="37">
@@ -4301,23 +4301,23 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9792623071864296</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>111111010101010011101000010000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9775199999999999</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="38">
@@ -4325,23 +4325,23 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.751574943738487</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111011110111101100110101011</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9792623071864296</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>111111010101010011101000010000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9775199999999999</v>
+        <v>0.7521565417416645</v>
       </c>
     </row>
     <row r="39">
@@ -4349,23 +4349,23 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7515683295698272</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111011110111100100110101011</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9773305525333712</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>111111010001010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.97733</v>
+        <v>0.7521557149701272</v>
       </c>
     </row>
     <row r="40">
@@ -4373,23 +4373,23 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.751574943738487</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111011110111101100110101011</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9773305525333712</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>111111010001010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.97733</v>
+        <v>0.7521565417416645</v>
       </c>
     </row>
     <row r="41">
@@ -4397,23 +4397,23 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9773305525333712</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>111111010001010011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.97733</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="42">
@@ -4421,23 +4421,23 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9773305543747828</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>111111010001010011101000110001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.97733</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="43">
@@ -4445,23 +4445,23 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.6471159503430148</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110011011110111101110110101011</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9773305543747828</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>111111010001010011101000110001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.97733</v>
+        <v>0.7312645777078987</v>
       </c>
     </row>
     <row r="44">
@@ -4469,23 +4469,23 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.6471159503430148</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110011011110111101110110101011</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9773908928385099</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>111111010001011011101000110000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.97733</v>
+        <v>0.7312645777078988</v>
       </c>
     </row>
     <row r="45">
@@ -4493,23 +4493,23 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9773116965700032</v>
+        <v>0.6471159503430148</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>111111010001010001001000110000</t>
+          <t>110011011110111101110110101011</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9773267297667223</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>111111010001010011001000010100</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.97733</v>
+        <v>0.7312645777078988</v>
       </c>
     </row>
     <row r="46">
@@ -4517,23 +4517,23 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9773116376454027</v>
+        <v>0.6471159503430148</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>111111010001010001001000010000</t>
+          <t>110011011110111101110110101011</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.97732</v>
+        <v>0.7417106424021173</v>
       </c>
     </row>
     <row r="47">
@@ -4541,23 +4541,23 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5455163147561428</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>101111010001010001001000110000</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.93414</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="48">
@@ -4565,23 +4565,23 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.97733</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="49">
@@ -4589,23 +4589,23 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9773267224010905</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>111111010001010011001000010000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.97733</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="50">
@@ -4613,23 +4613,23 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9165158871871112</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>111101010001010011001000010000</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9712499999999999</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="51">
@@ -4637,23 +4637,23 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9165158871871112</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>111101010001010011001000010000</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.9712499999999999</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="52">
@@ -4661,23 +4661,23 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8576581787017624</v>
+        <v>0.7515699831092637</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>111011010001010011001000010001</t>
+          <t>110111011110111100110110101011</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.95928</v>
+        <v>0.7521560456787422</v>
       </c>
     </row>
     <row r="53">
@@ -4685,23 +4685,23 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8576581769767697</v>
+        <v>0.7515699831092637</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>111011010001010011001000010000</t>
+          <t>110111011110111100110110101011</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.95928</v>
+        <v>0.7521553849070628</v>
       </c>
     </row>
     <row r="54">
@@ -4709,23 +4709,23 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8576581769767697</v>
+        <v>0.7515699831092637</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>111011010001010011001000010000</t>
+          <t>110111011110111100110110101011</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.93544</v>
+        <v>0.7521553849070627</v>
       </c>
     </row>
     <row r="55">
@@ -4733,23 +4733,23 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8576581787017624</v>
+        <v>0.7448189250149491</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>111011010001010011001000010001</t>
+          <t>110111001110111101110110101011</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.9532</v>
+        <v>0.7514809398693106</v>
       </c>
     </row>
     <row r="56">
@@ -4757,23 +4757,23 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8576581769767697</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>111011010001010011001000010000</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.9773304954496139</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>111111010001010011101000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.9471000000000001</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="57">
@@ -4781,23 +4781,23 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9165158871871112</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>111101010001010011001000010000</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.95301</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="58">
@@ -4805,23 +4805,23 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9165779721396166</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>111101010001011011101000010000</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.96518</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="59">
@@ -4829,23 +4829,23 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2387283594139776</v>
+        <v>0.7515699831092637</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>011111010001010011001000010000</t>
+          <t>110111011110111100110110101011</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.9792585340972544</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>111111010101010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.89759</v>
+        <v>0.7521560456787422</v>
       </c>
     </row>
     <row r="60">
@@ -4853,23 +4853,23 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9165158889703114</v>
+        <v>0.7515699831092637</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>111101010001010011001000010001</t>
+          <t>110111011110111100110110101011</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.9792604215625478</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>111111010101010011011000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.96556</v>
+        <v>0.7521560456787422</v>
       </c>
     </row>
     <row r="61">
@@ -4877,23 +4877,23 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9165158889703114</v>
+        <v>0.7515699831092637</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>111101010001010011001000010001</t>
+          <t>110111011110111100110110101011</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.979260419719319</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>111111010101010011011000010000</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.96537</v>
+        <v>0.7521560456787421</v>
       </c>
     </row>
     <row r="62">
@@ -4901,23 +4901,23 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5003417056062432</v>
+        <v>0.7515699831092637</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>101101010001010011001000010000</t>
+          <t>110111011110111100110110101011</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.9928346088423637</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>111111110001010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.92514</v>
+        <v>0.7521560456787422</v>
       </c>
     </row>
     <row r="63">
@@ -4925,23 +4925,23 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9165779739228773</v>
+        <v>0.7515765843668587</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>111101010001011011101000010001</t>
+          <t>110111011110111101110110100011</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.9928346088423637</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>111111110001010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.97285</v>
+        <v>0.7521567058045016</v>
       </c>
     </row>
     <row r="64">
@@ -4949,23 +4949,23 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7515765843668587</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111011110111101110110100011</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.9928346088423637</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>111111110001010011001000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.97893</v>
+        <v>0.7521567058045016</v>
       </c>
     </row>
     <row r="65">
@@ -4973,23 +4973,23 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.9793227089376816</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>111111010101011011101000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.9775700000000001</v>
+        <v>0.7521567070963356</v>
       </c>
     </row>
     <row r="66">
@@ -4997,23 +4997,23 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9928346088423637</v>
+        <v>0.7448189250149491</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>111111110001010011001000010001</t>
+          <t>110111001110111101110110101011</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.9793227089376816</v>
+        <v>0.7573776953965626</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>111111010101011011101000010001</t>
+          <t>110111101100101001001111001010</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.97795</v>
+        <v>0.7514809398693105</v>
       </c>
     </row>
     <row r="67">
@@ -5021,23 +5021,23 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7448189250149491</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111001110111101110110101011</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.9928346088423637</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>111111110001010011001000010001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.97931</v>
+        <v>0.7747168192621132</v>
       </c>
     </row>
     <row r="68">
@@ -5045,23 +5045,23 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9773267242424986</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>111111010001010011001000010001</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.9793227089376816</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>111111010101011011101000010001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.9779600000000001</v>
+        <v>0.7753925864891381</v>
       </c>
     </row>
     <row r="69">
@@ -5069,23 +5069,23 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9696824165005898</v>
+        <v>0.7515460570230215</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>111111000001011011101000010001</t>
+          <t>110111011110111001001111001010</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.9793227089376816</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>111111010101011011101000010001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.97719</v>
+        <v>0.7759727081261498</v>
       </c>
     </row>
     <row r="70">
@@ -5093,23 +5093,23 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9696824165005898</v>
+        <v>0.7515460069654687</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>111111000001011011101000010001</t>
+          <t>110111011110111001001110101011</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.9793227089376816</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>111111010101011011101000010001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.97719</v>
+        <v>0.7759757739783449</v>
       </c>
     </row>
     <row r="71">
@@ -5117,23 +5117,23 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9773908357529905</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>111111010001011011101000010001</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.9793227236839802</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>111111010101011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.97758</v>
+        <v>0.775978833010318</v>
       </c>
     </row>
     <row r="72">
@@ -5141,23 +5141,23 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9769081654800421</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>111111010000011011101000010001</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.9793227236839802</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>111111010101011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.97754</v>
+        <v>0.7759788330297017</v>
       </c>
     </row>
     <row r="73">
@@ -5165,23 +5165,23 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9769081654800421</v>
+        <v>0.3806090096037726</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>111111010000011011101000010001</t>
+          <t>100111011110111101110110101011</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.9793189338888605</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>111111010101011011001000010001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.97754</v>
+        <v>0.701203462674105</v>
       </c>
     </row>
     <row r="74">
@@ -5189,23 +5189,23 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9769081654800421</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>111111010000011011101000010001</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.9793227089376816</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>111111010101011011101000010001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.97792</v>
+        <v>0.7771425435149508</v>
       </c>
     </row>
     <row r="75">
@@ -5213,23 +5213,23 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9769081654800421</v>
+        <v>0.7514708240177348</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>111111010000011011101000010001</t>
+          <t>110111011110101101110111001010</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.9793227089376816</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>111111010101011011101000010001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.97811</v>
+        <v>0.7777231100287719</v>
       </c>
     </row>
     <row r="76">
@@ -5237,23 +5237,23 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.981256489471009</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>111111011001011011101000010001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.9748599999999999</v>
+        <v>0.7783274870742505</v>
       </c>
     </row>
     <row r="77">
@@ -5261,23 +5261,23 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9467402642124791</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>111110010001011011101000010001</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.9812565042318596</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>111111011001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.9751</v>
+        <v>0.7789319058232443</v>
       </c>
     </row>
     <row r="78">
@@ -5285,23 +5285,23 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9773870791611782</v>
+        <v>0.7515765972851994</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>111111010001011011001000011001</t>
+          <t>110111011110111101110110101011</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.9812565042318596</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>111111011001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.97855</v>
+        <v>0.7783646559601214</v>
       </c>
     </row>
     <row r="79">
@@ -5309,23 +5309,23 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9773870791611782</v>
+        <v>0.7511533486986355</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>111111010001011011001000011001</t>
+          <t>110111011101111101110110101011</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.9812565042318596</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>111111011001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.97836</v>
+        <v>0.7790117689544656</v>
       </c>
     </row>
     <row r="80">
@@ -5333,23 +5333,23 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9773870791611782</v>
+        <v>0.7511533486986355</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>111111010001011011001000011001</t>
+          <t>110111011101111101110110101011</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.9793227236839802</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>111111010101011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.97816</v>
+        <v>0.7796905881014247</v>
       </c>
     </row>
     <row r="81">
@@ -5357,23 +5357,23 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9773870791611782</v>
+        <v>0.7511533486986355</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>111111010001011011001000011001</t>
+          <t>110111011101111101110110101011</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.9793227236839802</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>111111010101011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.97778</v>
+        <v>0.7798606266336469</v>
       </c>
     </row>
     <row r="82">
@@ -5381,23 +5381,23 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9773870791611782</v>
+        <v>0.7511533486986355</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>111111010001011011001000011001</t>
+          <t>110111011101111101110110101011</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.9793227236839802</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>111111010101011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.97816</v>
+        <v>0.779935015721584</v>
       </c>
     </row>
     <row r="83">
@@ -5405,23 +5405,23 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9773870791611782</v>
+        <v>0.7575145944725208</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>111111010001011011001000011001</t>
+          <t>110111101100111101110110101011</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.9793227236839802</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>111111010101011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.97816</v>
+        <v>0.7805817703149396</v>
       </c>
     </row>
     <row r="84">
@@ -5429,23 +5429,23 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9773870791611782</v>
+        <v>0.7575145944725208</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>111111010001011011001000011001</t>
+          <t>110111101100111101110110101011</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.9793191845754707</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>111111010101011011001010011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.97778</v>
+        <v>0.7806667897432575</v>
       </c>
     </row>
     <row r="85">
@@ -5453,23 +5453,23 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5455754522204048</v>
+        <v>0.7575145944725208</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>101111010001011011101000011001</t>
+          <t>110111101100111101110110101011</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.9795608023992697</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>111111010101111011001010011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.9344</v>
+        <v>0.7807518090093686</v>
       </c>
     </row>
     <row r="86">
@@ -5477,23 +5477,23 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5455754522204048</v>
+        <v>0.7575145944725208</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>101111010001011011101000011001</t>
+          <t>110111101100111101110110101011</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.9795608023992697</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>111111010101111011001010011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.93443</v>
+        <v>0.7808368282754797</v>
       </c>
     </row>
     <row r="87">
@@ -5501,23 +5501,23 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7583647871336316</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110111101110111101110110101011</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.97739</v>
+        <v>0.7809218475415908</v>
       </c>
     </row>
     <row r="88">
@@ -5525,23 +5525,23 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7583647871336316</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110111101110111101110110101011</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.97739</v>
+        <v>0.7809218475415908</v>
       </c>
     </row>
     <row r="89">
@@ -5549,23 +5549,23 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7583647871336316</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110111101110111101110110101011</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.97739</v>
+        <v>0.7809218475415908</v>
       </c>
     </row>
     <row r="90">
@@ -5573,23 +5573,23 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7583647871336316</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110111101110111101110110101011</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.97739</v>
+        <v>0.7809231763459736</v>
       </c>
     </row>
     <row r="91">
@@ -5597,23 +5597,23 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7583647871336316</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110111101110111101110110101011</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.97739</v>
+        <v>0.7809245051503563</v>
       </c>
     </row>
     <row r="92">
@@ -5621,23 +5621,23 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7583647871336316</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110111101110111101110110101011</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.97739</v>
+        <v>0.7816077106578649</v>
       </c>
     </row>
     <row r="93">
@@ -5645,23 +5645,23 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7583647741570833</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110111101110111101110110100011</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.97739</v>
+        <v>0.7822922377116373</v>
       </c>
     </row>
     <row r="94">
@@ -5669,23 +5669,23 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7583647741570833</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110111101110111101110110100011</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.97739</v>
+        <v>0.7829727830150708</v>
       </c>
     </row>
     <row r="95">
@@ -5693,23 +5693,23 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7583647871336316</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110111101110111101110110101011</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.9773908578506108</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>111111010001011011101000011101</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.97739</v>
+        <v>0.7822935724764731</v>
       </c>
     </row>
     <row r="96">
@@ -5717,23 +5717,23 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7583647871336316</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110111101110111101110110101011</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.97739</v>
+        <v>0.7829767707258511</v>
       </c>
     </row>
     <row r="97">
@@ -5741,23 +5741,23 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7049137605352656</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110101101110111101110110101011</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.97739</v>
+        <v>0.7783135447691405</v>
       </c>
     </row>
     <row r="98">
@@ -5765,23 +5765,23 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7049137605352656</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110101101110111101110110101011</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.97739</v>
+        <v>0.7796772981753922</v>
       </c>
     </row>
     <row r="99">
@@ -5789,23 +5789,23 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7049137605352656</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110101101110111101110110101011</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.97739</v>
+        <v>0.7749897024514064</v>
       </c>
     </row>
     <row r="100">
@@ -5813,23 +5813,23 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.1153275172682976</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>010101101110111111110110101011</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.9776322303265141</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>111111010001111011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.97741</v>
+        <v>0.7061692100182639</v>
       </c>
     </row>
     <row r="101">
@@ -5837,23 +5837,23 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.1179962212592392</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>010101111110111111111110101011</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.97739</v>
+        <v>0.6898909918467047</v>
       </c>
     </row>
     <row r="102">
@@ -5861,23 +5861,23 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.6597586790903966</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110011111110111111110110101011</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.97739</v>
+        <v>0.7447001218753637</v>
       </c>
     </row>
     <row r="103">
@@ -5885,23 +5885,23 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.6597586790903966</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110011111110111111110110101011</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.97739</v>
+        <v>0.7395259540445621</v>
       </c>
     </row>
     <row r="104">
@@ -5909,23 +5909,23 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.6597586790903966</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110011111110111111110110101011</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.97739</v>
+        <v>0.7606135069469071</v>
       </c>
     </row>
     <row r="105">
@@ -5933,23 +5933,23 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9773908357529905</v>
+        <v>0.6597586790903966</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>111111010001011011101000010001</t>
+          <t>110011111110111111110110101011</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.97739</v>
+        <v>0.7500698541994085</v>
       </c>
     </row>
     <row r="106">
@@ -5957,23 +5957,23 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5455754522204048</v>
+        <v>0.6597586790903966</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>101111010001011011101000011001</t>
+          <t>110011111110111111110110101011</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.93421</v>
+        <v>0.7554395765577093</v>
       </c>
     </row>
     <row r="107">
@@ -5981,23 +5981,23 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9165779881889627</v>
+        <v>0.6597586790903966</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>111101010001011011101000011001</t>
+          <t>110011111110111111110110101011</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.97131</v>
+        <v>0.7554395705972449</v>
       </c>
     </row>
     <row r="108">
@@ -6005,23 +6005,23 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9165779881889627</v>
+        <v>0.6597594537176467</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>111101010001011011101000011001</t>
+          <t>110011111110111111111110101011</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.97131</v>
+        <v>0.7765272085296303</v>
       </c>
     </row>
     <row r="109">
@@ -6029,23 +6029,23 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9165779881889627</v>
+        <v>0.7651968422087184</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>111101010001011011101000011001</t>
+          <t>110111111110111111110110101011</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.238760054188903</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>011111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.97131</v>
+        <v>0.787071030801927</v>
       </c>
     </row>
     <row r="110">
@@ -6053,23 +6053,23 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.238760054188903</v>
+        <v>0.7651968422087184</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>011111010001011011101000011001</t>
+          <t>110111111110111111110110101011</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.9035300000000001</v>
+        <v>0.7870711142251164</v>
       </c>
     </row>
     <row r="111">
@@ -6077,23 +6077,23 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238760054188903</v>
+        <v>0.7643428273997542</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>011111010001011011101000011001</t>
+          <t>110111111100111111110110101011</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.9035300000000001</v>
+        <v>0.78698571274422</v>
       </c>
     </row>
     <row r="112">
@@ -6101,23 +6101,23 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.7643428273997542</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>110111111100111111110110101011</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.97739</v>
+        <v>0.78698571274422</v>
       </c>
     </row>
     <row r="113">
@@ -6125,23 +6125,23 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7643436611659878</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111100111111111110101011</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.97433</v>
+        <v>0.7869857961208434</v>
       </c>
     </row>
     <row r="114">
@@ -6149,23 +6149,23 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9467421345735809</v>
+        <v>0.7643436611659878</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>111110010001011011111000011001</t>
+          <t>110111111100111111111110101011</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.97433</v>
+        <v>0.7869857961208434</v>
       </c>
     </row>
     <row r="115">
@@ -6173,23 +6173,23 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7643436611659878</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111100111111111110101011</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.9773927361492454</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>111111010001011011111000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.97433</v>
+        <v>0.7869857961208434</v>
       </c>
     </row>
     <row r="116">
@@ -6197,23 +6197,23 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7643436611659878</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111100111111111110101011</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.9928992418404994</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>111111110001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.96975</v>
+        <v>0.7869856292744644</v>
       </c>
     </row>
     <row r="117">
@@ -6221,23 +6221,23 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7643428273997542</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111100111111110110101011</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.9928992418404994</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>111111110001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.96055</v>
+        <v>0.786985545897841</v>
       </c>
     </row>
     <row r="118">
@@ -6245,23 +6245,23 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7643428273997542</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111100111111110110101011</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.9928992418404994</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>111111110001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0.96978</v>
+        <v>0.78698571274422</v>
       </c>
     </row>
     <row r="119">
@@ -6269,23 +6269,23 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7651968422087184</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111110111111110110101011</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.9928992418404994</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>111111110001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0.9744</v>
+        <v>0.787071030801927</v>
       </c>
     </row>
     <row r="120">
@@ -6293,23 +6293,23 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7651968422087184</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111110111111110110101011</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.9928992418404994</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>111111110001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.96975</v>
+        <v>0.787071197648306</v>
       </c>
     </row>
     <row r="121">
@@ -6317,23 +6317,23 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7651901748873365</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111110111110110110101111</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.9928992418404994</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>111111110001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.97436</v>
+        <v>0.7870704468412376</v>
       </c>
     </row>
     <row r="122">
@@ -6341,23 +6341,23 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8722500797507693</v>
+        <v>0.7651834945602457</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>111011110001011011101000011001</t>
+          <t>110111111110111101110110101011</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.9928992418404994</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>111111110001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.96537</v>
+        <v>0.7870677773115431</v>
       </c>
     </row>
     <row r="123">
@@ -6365,23 +6365,23 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7651834945602457</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111110111101110110101011</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.9928992418404994</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>111111110001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.96668</v>
+        <v>0.7870691954995799</v>
       </c>
     </row>
     <row r="124">
@@ -6389,23 +6389,23 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7651709812455313</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111110111011111110101011</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.9681999999999999</v>
+        <v>0.7870626892040222</v>
       </c>
     </row>
     <row r="125">
@@ -6413,23 +6413,23 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7651709812455313</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111110111011111110101011</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.96206</v>
+        <v>0.7870676945505567</v>
       </c>
     </row>
     <row r="126">
@@ -6437,23 +6437,23 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7651709812455313</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111110111011111110101011</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0.96513</v>
+        <v>0.7870653593752774</v>
       </c>
     </row>
     <row r="127">
@@ -6461,23 +6461,23 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7651709812455313</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111110111011111110101011</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0.95594</v>
+        <v>0.7870661108340895</v>
       </c>
     </row>
     <row r="128">
@@ -6485,23 +6485,23 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.764316980872067</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111100111011111110101011</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.9773908504847373</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>111111010001011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0.95594</v>
+        <v>0.7869807114484869</v>
       </c>
     </row>
     <row r="129">
@@ -6509,23 +6509,23 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7643169873857538</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111100111011111110101111</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.9467405106940691</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>111110010001011011101010011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>0.94674</v>
+        <v>0.7869807120998442</v>
       </c>
     </row>
     <row r="130">
@@ -6533,23 +6533,23 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7643169873857538</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111100111011111110101111</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.9467699727246438</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>111110010001011111101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0.94674</v>
+        <v>0.7869807120998442</v>
       </c>
     </row>
     <row r="131">
@@ -6557,23 +6557,23 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7651709877628561</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111110111011111110101111</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.9467699727246438</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>111110010001011111101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.94675</v>
+        <v>0.7871088294791916</v>
       </c>
     </row>
     <row r="132">
@@ -6581,23 +6581,23 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9467402787113953</v>
+        <v>0.7651709877628561</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>111110010001011011101000011001</t>
+          <t>110111111110111011111110101111</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.9467699727246438</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>111110010001011111101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.94674</v>
+        <v>0.7871542182957615</v>
       </c>
     </row>
     <row r="133">
@@ -6605,23 +6605,23 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9467328552808427</v>
+        <v>0.7651709877628561</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>111110010001011010101000011001</t>
+          <t>110111111110111011111110101111</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.9467699727246438</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>111110010001011111101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.94674</v>
+        <v>0.7871542169922739</v>
       </c>
     </row>
     <row r="134">
@@ -6629,23 +6629,23 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9462652378293545</v>
+        <v>0.7651709877628561</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>111110010000011011101000011001</t>
+          <t>110111111110111011111110101111</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.9467699727246438</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>111110010001011111101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0.9467</v>
+        <v>0.7871969362891426</v>
       </c>
     </row>
     <row r="135">
@@ -6653,23 +6653,23 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.2235035821880787</v>
+        <v>0.7651709877628561</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>011110010000011011101000011001</t>
+          <t>110111111110111011111110101111</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.9472154388027259</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>111110010010011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0.87442</v>
+        <v>0.7872369860666735</v>
       </c>
     </row>
     <row r="136">
@@ -6677,23 +6677,23 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9462652378293545</v>
+        <v>0.7651709877628561</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>111110010000011011101000011001</t>
+          <t>110111111110111011111110101111</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.9472154388027259</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>111110010010011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.94679</v>
+        <v>0.7871542176441997</v>
       </c>
     </row>
     <row r="137">
@@ -6701,23 +6701,23 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9467328552808427</v>
+        <v>0.7651968422087184</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>111110010001011010101000011001</t>
+          <t>110111111110111111110110101011</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.9472154388027259</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>111110010010011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.9468299999999999</v>
+        <v>0.7871140837917354</v>
       </c>
     </row>
     <row r="138">
@@ -6725,23 +6725,23 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9467328552808427</v>
+        <v>0.7651968422087184</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>111110010001011010101000011001</t>
+          <t>110111111110111111110110101011</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.9472154388027259</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>111110010010011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.94698</v>
+        <v>0.7871140837917354</v>
       </c>
     </row>
     <row r="139">
@@ -6749,23 +6749,23 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.829465446640271</v>
+        <v>0.7651968422087184</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>111010010010011011101000011001</t>
+          <t>110111111110111111110110101011</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.9472154968129435</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>111110010010011011101000111001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.9353399999999999</v>
+        <v>0.787114000368546</v>
       </c>
     </row>
     <row r="140">
@@ -6773,23 +6773,23 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.829465446640271</v>
+        <v>0.7651969464876804</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>111010010010011011101000011001</t>
+          <t>110111111110111111110111101011</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.9472154388027259</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>111110010010011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.92357</v>
+        <v>0.7871140837917354</v>
       </c>
     </row>
     <row r="141">
@@ -6797,23 +6797,23 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.829465446640271</v>
+        <v>0.7651969464876804</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>111010010010011011101000011001</t>
+          <t>110111111110111111110111101011</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.9472154388027259</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>111110010010011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.91179</v>
+        <v>0.7871995328135507</v>
       </c>
     </row>
     <row r="142">
@@ -6821,23 +6821,23 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8290138575337288</v>
+        <v>0.6596603051258317</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>111010010001011010101000011001</t>
+          <t>110011111110101111111110101011</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.9472154388027259</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>111110010010011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.89993</v>
+        <v>0.7871462080608679</v>
       </c>
     </row>
     <row r="143">
@@ -6845,23 +6845,23 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.829465446640271</v>
+        <v>0.6596603051258317</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>111010010010011011101000011001</t>
+          <t>110011111110101111111110101011</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.9472154388027259</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>111110010010011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0.92338</v>
+        <v>0.7738834626052371</v>
       </c>
     </row>
     <row r="144">
@@ -6869,23 +6869,23 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9462652378293545</v>
+        <v>0.6596603051258317</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>111110010000011011101000011001</t>
+          <t>110011111110101111111110101011</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.947245140266555</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>111110010010011111101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0.9468800000000001</v>
+        <v>0.7766458654181008</v>
       </c>
     </row>
     <row r="145">
@@ -6893,23 +6893,23 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9467328552808427</v>
+        <v>0.6596602990745094</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>111110010001011010101000011001</t>
+          <t>110011111110101111111110100111</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.9472154388027259</v>
+        <v>0.9839353912132243</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>111110010010011011101000011001</t>
+          <t>111111011110111101110110101011</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0.94693</v>
+        <v>0.7661775656236658</v>
       </c>
     </row>
     <row r="146">
@@ -6917,23 +6917,23 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9467328552808427</v>
+        <v>0.7651976699231748</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>111110010001011010101000011001</t>
+          <t>110111111110111111111110100111</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.9474530635518749</v>
+        <v>0.9995116219302023</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>111110010010111011101000011001</t>
+          <t>111111111110111111111110101011</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0.94697</v>
+        <v>0.8107591530339123</v>
       </c>
     </row>
     <row r="147">
@@ -6941,23 +6941,23 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9467328552808427</v>
+        <v>0.765190996080777</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>111110010001011010101000011001</t>
+          <t>110111111110111110111110100111</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.9619970464065052</v>
+        <v>0.9995116219302023</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>111110110001011010101000011001</t>
+          <t>111111111110111111111110101011</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0.94852</v>
+        <v>0.8325042893947534</v>
       </c>
     </row>
     <row r="148">
@@ -6965,23 +6965,23 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9467328552808427</v>
+        <v>0.7651910025981871</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>111110010001011010101000011001</t>
+          <t>110111111110111110111110101011</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.9619970464065052</v>
+        <v>0.9995116219302023</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>111110110001011010101000011001</t>
+          <t>111111111110111111111110101011</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0.94855</v>
+        <v>0.8544266899343143</v>
       </c>
     </row>
     <row r="149">
@@ -6989,23 +6989,23 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9467328552808427</v>
+        <v>0.7651910025981871</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>111110010001011010101000011001</t>
+          <t>110111111110111110111110101011</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.9624760193324634</v>
+        <v>0.9995116219302023</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>111110110010011010101000011001</t>
+          <t>111111111110111111111110101011</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0.9486</v>
+        <v>0.8763489024038449</v>
       </c>
     </row>
     <row r="150">
@@ -7013,23 +7013,23 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9467328552808427</v>
+        <v>0.7651910025981871</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>111110010001011010101000011001</t>
+          <t>110111111110111110111110101011</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.9624760193324634</v>
+        <v>0.9995116219302023</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>111110110010011010101000011001</t>
+          <t>111111111110111111111110101011</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0.95165</v>
+        <v>0.8326768905600039</v>
       </c>
     </row>
     <row r="151">
@@ -7037,23 +7037,23 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9467328552808427</v>
+        <v>0.7647564377919681</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>111110010001011010101000011001</t>
+          <t>110111111101111101110110101111</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.9624760193324634</v>
+        <v>0.9995116219302023</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>111110110010011010101000011001</t>
+          <t>111111111110111111111110101011</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0.95165</v>
+        <v>0.8545116039837508</v>
       </c>
     </row>
     <row r="152">
@@ -7061,23 +7061,23 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.9391465360852843</v>
+        <v>0.7647572587526347</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>111110000001011010101000011001</t>
+          <t>110111111101111101111110100111</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.9624834749923672</v>
+        <v>0.9995116219302023</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>111110110010011011101000001001</t>
+          <t>111111111110111111111110101011</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0.95022</v>
+        <v>0.8982265011842359</v>
       </c>
     </row>
     <row r="153">
@@ -7085,23 +7085,23 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.5227373804616148</v>
+        <v>0.7656106835725691</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>101110010001011011101000011001</t>
+          <t>110111111111111101110110101111</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.9624834749923672</v>
+        <v>0.9995116219302023</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>111110110010011011101000001001</t>
+          <t>111111111110111111111110101011</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0.90859</v>
+        <v>0.8765277176604001</v>
       </c>
     </row>
     <row r="154">
@@ -7109,23 +7109,23 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9391465360852843</v>
+        <v>0.7520007856269292</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>111110000001011010101000011001</t>
+          <t>110111011111111101111110100111</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.9624834749923672</v>
+        <v>0.9995116219302023</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>111110110010011011101000001001</t>
+          <t>111111111110111111111110101011</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.95414</v>
+        <v>0.897044901204427</v>
       </c>
     </row>
     <row r="155">
@@ -7133,23 +7133,23 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.9391465360852843</v>
+        <v>0.7656106835725691</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>111110000001011010101000011001</t>
+          <t>110111111111111101110110101111</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9995116219302023</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111110111111111110101011</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.9557099999999999</v>
+        <v>0.9202868047532695</v>
       </c>
     </row>
     <row r="156">
@@ -7157,23 +7157,23 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.9391465360852843</v>
+        <v>0.7656115180300223</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>111110000001011010101000011001</t>
+          <t>110111111111111101111110101111</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9995116219302023</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111110111111111110101011</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0.95262</v>
+        <v>0.9640488175935389</v>
       </c>
     </row>
     <row r="157">
@@ -7181,23 +7181,23 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>0.9391538863913893</v>
+        <v>0.752000798548915</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>111110000001011011101000000001</t>
+          <t>110111011111111101111110101111</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.9629569831551048</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>111110110011011010111000011001</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0.95495</v>
+        <v>0.9423632071195133</v>
       </c>
     </row>
     <row r="158">
@@ -7205,23 +7205,23 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.9476832909475035</v>
+        <v>0.7656111008012388</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>111110010011011010101000011001</t>
+          <t>110111111111111101111010101111</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0.95665</v>
+        <v>0.9671141531131475</v>
       </c>
     </row>
     <row r="159">
@@ -7229,23 +7229,23 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>0.9476832909475035</v>
+        <v>0.984420747773916</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>111110010011011010101000011001</t>
+          <t>111111011111111101111110101111</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.9537</v>
+        <v>0.9905043829265153</v>
       </c>
     </row>
     <row r="160">
@@ -7253,23 +7253,23 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.9476832909475035</v>
+        <v>0.9844207403816004</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>111110010011011010101000011001</t>
+          <t>111111011111111101111110101011</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.9567</v>
+        <v>0.9920165083161692</v>
       </c>
     </row>
     <row r="161">
@@ -7277,23 +7277,23 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>0.9476851477337357</v>
+        <v>0.9844207403816004</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>111110010011011010111000011001</t>
+          <t>111111011111111101111110101011</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0.95966</v>
+        <v>0.9918213388880591</v>
       </c>
     </row>
     <row r="162">
@@ -7301,23 +7301,23 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9472080135095282</v>
+        <v>0.9839514729916476</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>111110010010011010101000011001</t>
+          <t>111111011110111111111110101011</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.9629569831551048</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>111110110011011010111000011001</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.95813</v>
+        <v>0.9959570753773148</v>
       </c>
     </row>
     <row r="163">
@@ -7325,23 +7325,23 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.9471931630104443</v>
+        <v>0.9844358872943584</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>111110010010011000101000011001</t>
+          <t>111111011111111111111110101111</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.95365</v>
+        <v>0.9976610110997559</v>
       </c>
     </row>
     <row r="164">
@@ -7349,23 +7349,23 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9472080135095282</v>
+        <v>0.984435879901986</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>111110010010011010101000011001</t>
+          <t>111111011111111111111110101011</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0.95665</v>
+        <v>0.9950361054684438</v>
       </c>
     </row>
     <row r="165">
@@ -7373,23 +7373,23 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>0.9472080135095282</v>
+        <v>0.984435879901986</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>111110010010011010101000011001</t>
+          <t>111111011111111111111110101011</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0.95517</v>
+        <v>0.9920210538853935</v>
       </c>
     </row>
     <row r="166">
@@ -7397,23 +7397,23 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9472080135095282</v>
+        <v>0.983951480382201</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>111110010010011010101000011001</t>
+          <t>111111011110111111111110101111</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0.95527</v>
+        <v>0.9950365830215266</v>
       </c>
     </row>
     <row r="167">
@@ -7421,23 +7421,23 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9476684367231293</v>
+        <v>0.983951480382201</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>111110010011011000101000011001</t>
+          <t>111111011110111111111110101111</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0.9583700000000001</v>
+        <v>0.9935290103028184</v>
       </c>
     </row>
     <row r="168">
@@ -7445,23 +7445,23 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.9476684367231293</v>
+        <v>0.9229315875224257</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>111110010011011000101000011001</t>
+          <t>111101011110111111111110101111</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.95226</v>
+        <v>0.9889349528589946</v>
       </c>
     </row>
     <row r="169">
@@ -7469,23 +7469,23 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9476684367231293</v>
+        <v>0.2420081950623526</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>111110010011011000101000011001</t>
+          <t>011111011110111111111110101111</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.95073</v>
+        <v>0.914742150199983</v>
       </c>
     </row>
     <row r="170">
@@ -7493,23 +7493,23 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9229315875224257</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111101011110111111111110101111</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.9629401380340473</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>111110110011011000101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.94917</v>
+        <v>0.9920488900010476</v>
       </c>
     </row>
     <row r="171">
@@ -7517,23 +7517,23 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9229315875224257</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111101011110111111111110101111</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.9629551114677113</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>111110110011011010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.94917</v>
+        <v>0.9844885539733138</v>
       </c>
     </row>
     <row r="172">
@@ -7541,23 +7541,23 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9229315875224257</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111101011110111111111110101111</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.9476833489720456</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>111110010011011010101000111001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0.94764</v>
+        <v>0.976682545497626</v>
       </c>
     </row>
     <row r="173">
@@ -7565,23 +7565,23 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9229315875224257</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111101011110111111111110101111</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.9476832909475035</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>111110010011011010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0.94764</v>
+        <v>0.9799410417798076</v>
       </c>
     </row>
     <row r="174">
@@ -7589,23 +7589,23 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9229315875224257</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111101011110111111111110101111</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.9478021289334488</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>111110010011101010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0.94762</v>
+        <v>0.9853382658035834</v>
       </c>
     </row>
     <row r="175">
@@ -7613,23 +7613,23 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9229315875224257</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111101011110111111111110101111</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.9476832909475035</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>111110010011011010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0.94762</v>
+        <v>0.9853382654310543</v>
       </c>
     </row>
     <row r="176">
@@ -7637,23 +7637,23 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9229315875224257</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111101011110111111111110101111</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.9476832909475035</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>111110010011011010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0.9476</v>
+        <v>0.9922442009907375</v>
       </c>
     </row>
     <row r="177">
@@ -7661,23 +7661,23 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9229315839435643</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111101011110111111111110101101</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.9476832909475035</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>111110010011011010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0.94759</v>
+        <v>0.9845373746587838</v>
       </c>
     </row>
     <row r="178">
@@ -7685,23 +7685,23 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9229315839435643</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111101011110111111111110101101</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.9476832909475035</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>111110010011011010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0.94759</v>
+        <v>0.9768793701152436</v>
       </c>
     </row>
     <row r="179">
@@ -7709,23 +7709,23 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>0.9475644314016873</v>
+        <v>0.9229169285644326</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>111110010011001010101000001001</t>
+          <t>111101011110111101111110101111</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.9476832909475035</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>111110010011011010101000011001</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0.94759</v>
+        <v>0.9691207246109043</v>
       </c>
     </row>
     <row r="180">
@@ -7733,23 +7733,23 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>0.9475644314016873</v>
+        <v>0.9229315839435643</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>111110010011001010101000001001</t>
+          <t>111101011110111111111110101101</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.9475644676647517</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>111110010011001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0.94756</v>
+        <v>0.9707270268369077</v>
       </c>
     </row>
     <row r="181">
@@ -7757,23 +7757,23 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9229315266817834</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111101011110111111111110001101</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.9494666503075365</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>111110010111001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0.94775</v>
+        <v>0.9922853891928662</v>
       </c>
     </row>
     <row r="182">
@@ -7781,23 +7781,23 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0.9494666503075365</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>111110010111001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0.94814</v>
+        <v>0.9999891698775809</v>
       </c>
     </row>
     <row r="183">
@@ -7805,23 +7805,23 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>0.9475644604121387</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>111110010011001010101000011001</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.9494666503075365</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>111110010111001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.94794</v>
+        <v>0.9999906957505541</v>
       </c>
     </row>
     <row r="184">
@@ -7829,23 +7829,23 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.9475644531595259</v>
+        <v>0.9999540751484428</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>111110010011001010101000010101</t>
+          <t>111111111111111001111110101111</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.9494666503075365</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>111110010111001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.94794</v>
+        <v>0.9999891727064517</v>
       </c>
     </row>
     <row r="185">
@@ -7853,23 +7853,23 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.9475644531595259</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>111110010011001010101000010101</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.9782282717856737</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>111111010011001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0.9512</v>
+        <v>0.9999952733694737</v>
       </c>
     </row>
     <row r="186">
@@ -7877,23 +7877,23 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>0.9475644531595259</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>111110010011001010101000010101</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.9782282717856737</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>111111010011001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0.95427</v>
+        <v>0.999996799242447</v>
       </c>
     </row>
     <row r="187">
@@ -7901,23 +7901,23 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.9475644531595259</v>
+        <v>0.9999845922586612</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>111110010011001010101000010101</t>
+          <t>111111111111111101111110101111</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.9782282717856737</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>111111010011001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0.95579</v>
+        <v>0.9999983251154202</v>
       </c>
     </row>
     <row r="188">
@@ -7925,23 +7925,23 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.9475644531595259</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>111110010011001010101000010101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.9782282717856737</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>111111010011001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0.95561</v>
+        <v>0.9999998509883934</v>
       </c>
     </row>
     <row r="189">
@@ -7949,23 +7949,23 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.9475644531595259</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>111110010011001010101000010101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.9782282717856737</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>111111010011001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0.95445</v>
+        <v>0.9999998509883934</v>
       </c>
     </row>
     <row r="190">
@@ -7973,23 +7973,23 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9475644531595259</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>111110010011001010101000010101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.962835334568849</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>111110110011001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0.95138</v>
+        <v>0.9999998509883934</v>
       </c>
     </row>
     <row r="191">
@@ -7997,23 +7997,23 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>0.9475644531595259</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>111110010011001010101000010101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.9647527760007248</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>111110110111001010101000011101</t>
+          <t>111111111111111111111110111111</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0.95253</v>
+        <v>0.9999998539686255</v>
       </c>
     </row>
     <row r="192">
@@ -8021,23 +8021,23 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9399748105799758</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>111110000011001010101000011101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.9628353199472078</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>111110110011001010101000010101</t>
+          <t>111111111111111111111110111111</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0.95616</v>
+        <v>0.9999998539686255</v>
       </c>
     </row>
     <row r="193">
@@ -8045,23 +8045,23 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.9399748105799758</v>
+        <v>0.9844358872943584</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>111110000011001010101000011101</t>
+          <t>111111011111111111111110101111</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.9628353199472078</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>111110110011001010101000010101</t>
+          <t>111111111111111111111110111111</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0.9565399999999999</v>
+        <v>0.9984434575992219</v>
       </c>
     </row>
     <row r="194">
@@ -8069,23 +8069,23 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>0.9399747961329575</v>
+        <v>0.9844358872943584</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>111110000011001010101000010101</t>
+          <t>111111011111111111111110101111</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.9628354442311614</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>111110110011001010101001011001</t>
+          <t>111111111111111111111110111111</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0.9533</v>
+        <v>0.9984434575992219</v>
       </c>
     </row>
     <row r="195">
@@ -8093,23 +8093,23 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9628354515419824</v>
+        <v>0.9844358872943584</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>111110110011001010101001011101</t>
+          <t>111111011111111111111110101111</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.9628354442311614</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>111110110011001010101001011001</t>
+          <t>111111111111111111111110111111</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0.9164</v>
+        <v>0.995330664860415</v>
       </c>
     </row>
     <row r="196">
@@ -8117,23 +8117,23 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9494666357877588</v>
+        <v>0.9844358872943584</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>111110010111001010101000010101</t>
+          <t>111111011111111111111110101111</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.9628354515419824</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>111110110011001010101001011101</t>
+          <t>111111111111111111111110111111</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0.9615</v>
+        <v>0.9984434575992219</v>
       </c>
     </row>
     <row r="197">
@@ -8141,23 +8141,23 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9494666357877588</v>
+        <v>0.9844358872943584</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>111110010111001010101000010101</t>
+          <t>111111011111111111111110101111</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0.9937394617196241</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>111111110011001010001000010101</t>
+          <t>111111111111111111111110111111</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0.96192</v>
+        <v>0.9984434575992219</v>
       </c>
     </row>
     <row r="198">
@@ -8165,23 +8165,23 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.9494666357877588</v>
+        <v>0.9844358872943584</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>111110010111001010101000010101</t>
+          <t>111111011111111111111110101111</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.9937394617196241</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>111111110011001010001000010101</t>
+          <t>111111111111111111111110111111</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0.9645899999999999</v>
+        <v>0.9984434575992219</v>
       </c>
     </row>
     <row r="199">
@@ -8189,23 +8189,23 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9628353199472078</v>
+        <v>0.9844358872943584</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>111110110011001010101000010101</t>
+          <t>111111011111111111111110101111</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0.9937394617196241</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>111111110011001010001000010101</t>
+          <t>111111111111111111111110111111</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0.96902</v>
+        <v>0.9984434575992219</v>
       </c>
     </row>
     <row r="200">
@@ -8213,23 +8213,23 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9628315768107227</v>
+        <v>0.9844358872943584</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>111110110011001010001000010101</t>
+          <t>111111011111111111111110101111</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.993743264460754</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>111111110011001010101000010101</t>
+          <t>111111111111111111111110111111</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0.96902</v>
+        <v>0.9984434575992219</v>
       </c>
     </row>
     <row r="201">
@@ -8237,23 +8237,23 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>0.9628315768107227</v>
+        <v>0.9999998509883934</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>111110110011001010001000010101</t>
+          <t>111111111111111111111110101111</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.993743264460754</v>
+        <v>0.9999998807907138</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>111111110011001010101000010101</t>
+          <t>111111111111111111111110111111</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.97211</v>
+        <v>0.9999998539686255</v>
       </c>
     </row>
   </sheetData>
